--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21840" windowHeight="10080"/>
+    <workbookView windowWidth="21000" windowHeight="8895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="434">
   <si>
     <t>反馈时间</t>
   </si>
@@ -305,7 +305,7 @@
     <t>希望支持真机调试。</t>
   </si>
   <si>
-    <t>王跃yulewang</t>
+    <t>yule</t>
   </si>
   <si>
     <t>rip(10717972)</t>
@@ -652,9 +652,6 @@
   </si>
   <si>
     <t>2019.5.10</t>
-  </si>
-  <si>
-    <t>aresyfchen</t>
   </si>
   <si>
     <t>显示已经最大化了，但是下面少一截</t>
@@ -956,9 +953,6 @@
   </si>
   <si>
     <t>提高与选中符号相同的符号的颜色的对比度。</t>
-  </si>
-  <si>
-    <t>yule</t>
   </si>
   <si>
     <t>代码编辑器颜色自定义。</t>
@@ -1343,10 +1337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1399,7 +1393,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,15 +1421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,25 +1436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1467,7 +1445,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,7 +1476,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,14 +1523,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,7 +1538,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,13 +1610,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,37 +1652,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,31 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,49 +1706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,13 +1718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,21 +1742,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1778,6 +1757,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1788,17 +1800,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1820,18 +1821,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,10 +1837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1855,133 +1849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2369,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4116,10 +4110,10 @@
         <v>210</v>
       </c>
       <c r="B123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
@@ -4130,10 +4124,10 @@
         <v>210</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>9</v>
@@ -4141,13 +4135,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>213</v>
+      </c>
+      <c r="B125" t="s">
         <v>214</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>215</v>
-      </c>
-      <c r="C125" t="s">
-        <v>216</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
@@ -4155,13 +4149,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" t="s">
         <v>214</v>
       </c>
-      <c r="B126" t="s">
-        <v>215</v>
-      </c>
       <c r="C126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
@@ -4169,13 +4163,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
+        <v>213</v>
+      </c>
+      <c r="B127" t="s">
         <v>214</v>
       </c>
-      <c r="B127" t="s">
-        <v>215</v>
-      </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
@@ -4183,13 +4177,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" t="s">
         <v>214</v>
       </c>
-      <c r="B128" t="s">
-        <v>215</v>
-      </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4197,13 +4191,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4211,13 +4205,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B130" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" t="s">
         <v>222</v>
-      </c>
-      <c r="C130" t="s">
-        <v>223</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
@@ -4225,13 +4219,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="B131" t="s">
-        <v>220</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
@@ -4239,13 +4233,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
@@ -4253,13 +4247,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" t="s">
         <v>228</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>229</v>
-      </c>
-      <c r="C133" t="s">
-        <v>230</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>9</v>
@@ -4267,13 +4261,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" t="s">
         <v>228</v>
       </c>
-      <c r="B134" t="s">
-        <v>229</v>
-      </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>9</v>
@@ -4281,13 +4275,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B135" t="s">
         <v>118</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>9</v>
@@ -4295,30 +4289,30 @@
     </row>
     <row r="136" ht="62" customHeight="1" spans="1:6">
       <c r="A136" t="s">
+        <v>232</v>
+      </c>
+      <c r="B136" t="s">
         <v>233</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>234</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="137" ht="27" spans="1:4">
       <c r="A137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" t="s">
         <v>237</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>9</v>
@@ -4335,8 +4329,8 @@
   <sheetPr/>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4370,84 +4364,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4455,16 +4449,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4472,19 +4466,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4495,10 +4489,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>77</v>
@@ -4512,10 +4506,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>77</v>
@@ -4529,10 +4523,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>151</v>
@@ -4546,10 +4540,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>64</v>
@@ -4563,13 +4557,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -4580,10 +4574,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>64</v>
@@ -4597,13 +4591,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -4614,84 +4608,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" t="s">
         <v>271</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -4702,16 +4696,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -4722,16 +4716,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -4742,76 +4736,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" t="s">
         <v>280</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" t="s">
         <v>282</v>
-      </c>
-      <c r="F24" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" t="s">
         <v>288</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -4822,81 +4816,81 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" t="s">
         <v>290</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
         <v>198</v>
       </c>
       <c r="C30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" t="s">
         <v>296</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E30" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" t="s">
         <v>298</v>
       </c>
-      <c r="C31" t="s">
-        <v>299</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -4907,10 +4901,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
         <v>77</v>
@@ -4924,10 +4918,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
         <v>77</v>
@@ -4941,10 +4935,10 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
         <v>77</v>
@@ -4958,10 +4952,10 @@
         <v>81</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
@@ -4969,36 +4963,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5009,10 +5003,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5020,16 +5014,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5043,13 +5037,13 @@
         <v>81</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5057,16 +5051,16 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" t="s">
         <v>310</v>
-      </c>
-      <c r="C41" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E41" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5077,13 +5071,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5094,13 +5088,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5111,10 +5105,10 @@
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
         <v>98</v>
@@ -5128,13 +5122,13 @@
         <v>102</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5145,16 +5139,16 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="s">
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5165,13 +5159,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5182,10 +5176,10 @@
         <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
         <v>135</v>
@@ -5193,142 +5187,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" t="s">
         <v>322</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F49" t="s">
         <v>324</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F49" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F52" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" t="s">
         <v>335</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F53" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="s">
         <v>336</v>
       </c>
-      <c r="B54" t="s">
-        <v>323</v>
-      </c>
-      <c r="C54" t="s">
-        <v>338</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
         <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F55" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5339,16 +5333,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5359,16 +5353,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5379,16 +5373,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5399,16 +5393,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E59" t="s">
+        <v>347</v>
+      </c>
+      <c r="F59" t="s">
         <v>348</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E59" t="s">
-        <v>349</v>
-      </c>
-      <c r="F59" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5419,16 +5413,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5439,96 +5433,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F62" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F63" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F65" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5539,16 +5533,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5559,16 +5553,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -5579,47 +5573,47 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E68" t="s">
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E70" t="s">
         <v>64</v>
@@ -5627,16 +5621,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E71" t="s">
         <v>64</v>
@@ -5644,16 +5638,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B72" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E72" t="s">
         <v>64</v>
@@ -5661,39 +5655,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" t="s">
         <v>373</v>
       </c>
-      <c r="C73" t="s">
-        <v>375</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E73" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>375</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E74" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" t="s">
         <v>377</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E74" t="s">
-        <v>378</v>
-      </c>
-      <c r="F74" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -5704,10 +5698,10 @@
         <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E75" t="s">
         <v>66</v>
@@ -5721,64 +5715,64 @@
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
+        <v>380</v>
+      </c>
+      <c r="F77" t="s">
         <v>382</v>
-      </c>
-      <c r="F77" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E78" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5786,16 +5780,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C80" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -5803,73 +5797,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
+        <v>391</v>
+      </c>
+      <c r="B84" t="s">
+        <v>392</v>
+      </c>
+      <c r="C84" t="s">
         <v>393</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" t="s">
         <v>394</v>
-      </c>
-      <c r="C84" t="s">
-        <v>395</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" t="s">
-        <v>267</v>
-      </c>
-      <c r="F84" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -5880,16 +5874,16 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F85" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -5900,10 +5894,10 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
         <v>77</v>
@@ -5911,22 +5905,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -5937,16 +5931,16 @@
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E88" t="s">
         <v>98</v>
       </c>
       <c r="F88" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -5957,10 +5951,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
         <v>151</v>
@@ -5971,13 +5965,13 @@
         <v>46</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E90" t="s">
         <v>50</v>
@@ -5985,19 +5979,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6008,10 +6002,10 @@
         <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E92" t="s">
         <v>128</v>
@@ -6025,16 +6019,16 @@
         <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E93" t="s">
         <v>128</v>
       </c>
       <c r="F93" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6045,10 +6039,10 @@
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E94" t="s">
         <v>138</v>
@@ -6062,10 +6056,10 @@
         <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E95" t="s">
         <v>165</v>
@@ -6079,10 +6073,10 @@
         <v>110</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E96" t="s">
         <v>165</v>
@@ -6090,16 +6084,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B97" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E97" t="s">
         <v>165</v>
@@ -6113,10 +6107,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E98" t="s">
         <v>165</v>
@@ -6127,16 +6121,16 @@
         <v>165</v>
       </c>
       <c r="B99" t="s">
+        <v>416</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" t="s">
         <v>418</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6147,13 +6141,13 @@
         <v>105</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E100" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6164,10 +6158,10 @@
         <v>166</v>
       </c>
       <c r="C101" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E101" t="s">
         <v>168</v>
@@ -6181,10 +6175,10 @@
         <v>177</v>
       </c>
       <c r="C102" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E102" t="s">
         <v>176</v>
@@ -6198,10 +6192,10 @@
         <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E103" t="s">
         <v>180</v>
@@ -6215,10 +6209,10 @@
         <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E104" t="s">
         <v>180</v>
@@ -6229,13 +6223,13 @@
         <v>50</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E105" t="s">
         <v>192</v>
@@ -6249,13 +6243,13 @@
         <v>84</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6266,13 +6260,13 @@
         <v>53</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6283,47 +6277,47 @@
         <v>158</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B109" t="s">
         <v>132</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E109" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C110" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E110" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -699,7 +699,7 @@
     <t>kramer</t>
   </si>
   <si>
-    <t>会报Project Not Match的错误</t>
+    <t>Pandora会报Project Not Match的错误</t>
   </si>
   <si>
     <t>2019.6.25</t>
@@ -1338,9 +1338,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1399,8 +1399,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,7 +1424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,8 +1437,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,7 +1447,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,30 +1493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,9 +1515,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,7 +1538,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1598,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,7 +1640,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,151 +1712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,9 +1734,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,16 +1798,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,47 +1829,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1837,10 +1837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1849,133 +1849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2363,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4329,8 +4329,8 @@
   <sheetPr/>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -2364,7 +2364,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="440">
   <si>
     <t>反馈时间</t>
   </si>
@@ -151,9 +151,6 @@
     <t>H(1642814318)</t>
   </si>
   <si>
-    <t>希望可以支持静态库调试Cocos。</t>
-  </si>
-  <si>
     <t>希望可以直接用数据线调试手机真机(使用adb之类的)，可以避开断网的问题，或者可以模拟断网的环境。</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>写个注解使用说明文档</t>
   </si>
   <si>
-    <t>用hexo来做官网</t>
-  </si>
-  <si>
     <t>有忽略文件夹操作吗</t>
   </si>
   <si>
@@ -696,19 +690,10 @@
     <t>提供的打印log的dll，实际无法创建控制台窗口</t>
   </si>
   <si>
-    <t>kramer</t>
-  </si>
-  <si>
-    <t>Pandora会报Project Not Match的错误</t>
-  </si>
-  <si>
     <t>2019.6.25</t>
   </si>
   <si>
     <t>3°(37358420)</t>
-  </si>
-  <si>
-    <t>cocos引擎无法调试，已提供测试包</t>
   </si>
   <si>
     <t>希望3°可以提供cocos编译dll的文档</t>
@@ -742,6 +727,24 @@
     <t>require 方式 self 是空,DoString  TextAsset self 不是空,都scriptEnv.Set("self", this);</t>
   </si>
   <si>
+    <t>2019.7.16</t>
+  </si>
+  <si>
+    <t>ZensYue(2645373456)</t>
+  </si>
+  <si>
+    <t>有同事想自定义快捷键，之前as那套</t>
+  </si>
+  <si>
+    <t>2019.7.21</t>
+  </si>
+  <si>
+    <t>呵呵哒(475773235)</t>
+  </si>
+  <si>
+    <t>有没有把lua所有文件，都格式化的方式</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1330,6 +1333,21 @@
   </si>
   <si>
     <t>EmmyLua的注解识别不了</t>
+  </si>
+  <si>
+    <t>希望可以支持静态库调试Cocos。</t>
+  </si>
+  <si>
+    <t>kramer</t>
+  </si>
+  <si>
+    <t>Pandora会报Project Not Match的错误</t>
+  </si>
+  <si>
+    <t>用hexo来做官网</t>
+  </si>
+  <si>
+    <t>cocos引擎无法调试，已提供测试包</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1355,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1386,14 +1404,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,6 +1428,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,16 +1471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,42 +1486,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1493,15 +1502,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,14 +1541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,25 +1556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,7 +1586,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,7 +1622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,67 +1646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,25 +1670,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,19 +1706,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,6 +1752,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1743,11 +1770,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,21 +1814,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1811,24 +1847,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1837,10 +1855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1849,133 +1867,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2004,11 +2022,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2361,17 +2379,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="59.75" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
   </cols>
@@ -2397,7 +2415,7 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2669,7 +2687,7 @@
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -2678,13 +2696,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
@@ -2692,13 +2710,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>9</v>
@@ -2706,10 +2724,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>48</v>
@@ -2720,13 +2738,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>9</v>
@@ -2734,13 +2752,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>9</v>
@@ -2748,12 +2766,12 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2762,13 +2780,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>9</v>
@@ -2776,10 +2794,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>58</v>
@@ -2790,10 +2808,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>59</v>
@@ -2804,13 +2822,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>9</v>
@@ -2821,9 +2839,9 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2832,13 +2850,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>9</v>
@@ -2846,13 +2864,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>9</v>
@@ -2860,13 +2878,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
@@ -2877,7 +2895,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>69</v>
@@ -2900,57 +2918,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>33</v>
+    <row r="38" ht="14.25" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" ht="27" spans="1:4">
       <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:4">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>9</v>
@@ -2958,10 +2976,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>82</v>
@@ -2975,10 +2993,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>9</v>
@@ -2989,7 +3007,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>85</v>
@@ -3003,7 +3021,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>86</v>
@@ -3033,7 +3051,7 @@
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -3047,7 +3065,7 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3056,13 +3074,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>90</v>
+      <c r="C49" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>9</v>
@@ -3070,13 +3088,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>9</v>
@@ -3084,13 +3102,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>9</v>
@@ -3098,58 +3116,58 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>83</v>
+      <c r="C52" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>9</v>
@@ -3157,13 +3175,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>9</v>
@@ -3171,10 +3189,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
         <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>106</v>
@@ -3185,10 +3203,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" t="s">
-        <v>105</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>107</v>
@@ -3199,10 +3217,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>108</v>
@@ -3213,24 +3231,24 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
         <v>109</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="s">
-        <v>110</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>111</v>
@@ -3238,33 +3256,33 @@
       <c r="D61" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>9</v>
@@ -3272,13 +3290,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>9</v>
@@ -3286,13 +3304,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>9</v>
@@ -3300,10 +3318,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>119</v>
@@ -3314,13 +3332,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>9</v>
@@ -3328,13 +3346,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>9</v>
@@ -3342,13 +3360,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>9</v>
@@ -3356,10 +3374,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>126</v>
@@ -3368,15 +3386,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="27" spans="1:4">
       <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
-        <v>53</v>
+        <v>127</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>9</v>
@@ -3384,10 +3402,10 @@
     </row>
     <row r="72" ht="27" spans="1:4">
       <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>130</v>
@@ -3396,15 +3414,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="7" t="s">
         <v>131</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>9</v>
@@ -3412,12 +3430,12 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -3426,13 +3444,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="9" t="s">
         <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>9</v>
@@ -3440,13 +3458,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>9</v>
@@ -3454,13 +3472,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>140</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>9</v>
@@ -3468,10 +3486,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>142</v>
@@ -3482,13 +3500,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>9</v>
@@ -3496,10 +3514,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
+        <v>33</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>146</v>
@@ -3510,10 +3528,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>147</v>
@@ -3524,10 +3542,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>148</v>
@@ -3538,10 +3556,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>149</v>
@@ -3552,13 +3570,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>9</v>
@@ -3566,7 +3584,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
@@ -3578,28 +3596,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" ht="27" spans="1:4">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" ht="27" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -3608,27 +3626,27 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="7" t="s">
         <v>155</v>
       </c>
+      <c r="C88" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="D88" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" ht="27" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="10" t="s">
         <v>157</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>9</v>
@@ -3636,24 +3654,24 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
         <v>50</v>
-      </c>
-      <c r="B91" t="s">
-        <v>105</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>160</v>
@@ -3661,32 +3679,32 @@
       <c r="D91" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>161</v>
+        <v>55</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D93" s="7" t="s">
@@ -3695,13 +3713,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>9</v>
@@ -3709,13 +3727,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" t="s">
         <v>165</v>
       </c>
-      <c r="B95" t="s">
-        <v>166</v>
-      </c>
       <c r="C95" s="7" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>9</v>
@@ -3723,57 +3741,57 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
         <v>165</v>
       </c>
-      <c r="B96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="7" t="s">
@@ -3782,12 +3800,12 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -3796,10 +3814,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>174</v>
@@ -3808,43 +3826,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="F102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>182</v>
@@ -3855,10 +3873,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>183</v>
@@ -3869,13 +3887,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" t="s">
-        <v>105</v>
+        <v>184</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>9</v>
@@ -3883,10 +3901,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
         <v>186</v>
@@ -3897,13 +3915,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" t="s">
-        <v>187</v>
+        <v>140</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>9</v>
@@ -3911,12 +3929,12 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>188</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
         <v>189</v>
       </c>
       <c r="D109" s="7" t="s">
@@ -3925,10 +3943,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
         <v>190</v>
@@ -3939,13 +3957,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>9</v>
@@ -3953,13 +3971,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>192</v>
-      </c>
-      <c r="B112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>9</v>
@@ -3967,13 +3985,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>188</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>150</v>
+        <v>193</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>194</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>9</v>
@@ -3981,13 +3999,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>9</v>
@@ -3995,13 +4013,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" t="s">
         <v>197</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>9</v>
@@ -4009,13 +4027,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>9</v>
@@ -4023,13 +4041,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
+      </c>
+      <c r="C117" t="s">
+        <v>199</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>9</v>
@@ -4037,26 +4055,26 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>196</v>
-      </c>
-      <c r="B118" t="s">
-        <v>198</v>
-      </c>
-      <c r="C118" t="s">
         <v>200</v>
       </c>
+      <c r="B118" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="D118" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="A119" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" t="s">
         <v>202</v>
       </c>
       <c r="D119" s="7" t="s">
@@ -4065,13 +4083,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" t="s">
         <v>203</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>9</v>
@@ -4079,13 +4097,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>9</v>
@@ -4093,13 +4111,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>209</v>
+        <v>11</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>9</v>
@@ -4107,12 +4125,12 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -4120,14 +4138,14 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="A124" t="s">
         <v>212</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>214</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>9</v>
@@ -4135,10 +4153,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" t="s">
         <v>213</v>
-      </c>
-      <c r="B125" t="s">
-        <v>214</v>
       </c>
       <c r="C125" t="s">
         <v>215</v>
@@ -4149,10 +4167,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" t="s">
         <v>213</v>
-      </c>
-      <c r="B126" t="s">
-        <v>214</v>
       </c>
       <c r="C126" t="s">
         <v>216</v>
@@ -4163,13 +4181,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" t="s">
         <v>217</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
@@ -4177,13 +4195,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4191,13 +4209,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4205,13 +4223,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
@@ -4222,38 +4240,41 @@
         <v>223</v>
       </c>
       <c r="B131" t="s">
-        <v>219</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="C131" t="s">
+        <v>226</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" ht="62" customHeight="1" spans="1:6">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="C132" t="s">
+        <v>229</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" ht="27" spans="1:4">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
-      </c>
-      <c r="C133" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>9</v>
@@ -4261,13 +4282,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>9</v>
@@ -4275,46 +4296,15 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" ht="62" customHeight="1" spans="1:6">
-      <c r="A136" t="s">
-        <v>232</v>
-      </c>
-      <c r="B136" t="s">
-        <v>233</v>
-      </c>
-      <c r="C136" t="s">
-        <v>234</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="137" ht="27" spans="1:4">
-      <c r="A137" t="s">
-        <v>236</v>
-      </c>
-      <c r="B137" t="s">
-        <v>237</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D137" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4327,10 +4317,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4364,84 +4354,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4449,16 +4439,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4466,19 +4456,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4489,13 +4479,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:5">
@@ -4506,13 +4496,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
@@ -4523,13 +4513,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
@@ -4540,13 +4530,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:5">
@@ -4557,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -4574,13 +4564,13 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
@@ -4591,13 +4581,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -4608,84 +4598,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" t="s">
         <v>268</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -4696,16 +4686,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -4716,16 +4706,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -4736,263 +4726,263 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" t="s">
         <v>292</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:5">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:5">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" t="s">
         <v>303</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E36" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5003,10 +4993,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5014,16 +5004,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5031,36 +5021,36 @@
     </row>
     <row r="40" ht="14.25" spans="1:5">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5071,13 +5061,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" t="s">
         <v>311</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5088,241 +5078,241 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
       <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:5">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
       <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C49" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C53" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5333,16 +5323,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5353,16 +5343,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5373,16 +5363,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5393,16 +5383,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5413,16 +5403,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5433,96 +5423,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5533,16 +5523,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5553,16 +5543,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -5570,209 +5560,209 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
       <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
         <v>64</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" t="s">
         <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>378</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E75" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
       <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
         <v>64</v>
       </c>
-      <c r="B76" t="s">
-        <v>65</v>
-      </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
         <v>381</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" t="s">
-        <v>380</v>
-      </c>
       <c r="F77" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5780,16 +5770,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C80" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -5797,442 +5787,442 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E82" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F85" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
       <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
         <v>98</v>
       </c>
-      <c r="B88" t="s">
-        <v>99</v>
-      </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:5">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:6">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:5">
       <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="B95" t="s">
-        <v>105</v>
-      </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:5">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:5">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:5">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E99" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" t="s">
         <v>419</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E100" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:5">
       <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
         <v>176</v>
       </c>
-      <c r="B102" t="s">
-        <v>177</v>
-      </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:5">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:5">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:5">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:5">
@@ -6240,84 +6230,152 @@
         <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
       <c r="A107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107" t="s">
         <v>428</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E107" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109" t="s">
         <v>432</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>434</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="1:5">
+      <c r="A111" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:5">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>436</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:5">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" t="s">
         <v>213</v>
       </c>
-      <c r="B110" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" t="s">
-        <v>433</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" t="s">
-        <v>431</v>
+      <c r="C113" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:5">
+      <c r="A114" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="449">
   <si>
     <t>反馈时间</t>
   </si>
@@ -743,6 +743,33 @@
   </si>
   <si>
     <t>有没有把lua所有文件，都格式化的方式</t>
+  </si>
+  <si>
+    <t>2019.8.1</t>
+  </si>
+  <si>
+    <t>小二郎(534876665)</t>
+  </si>
+  <si>
+    <t>有没有类似idea那个直接创建模板代码的东西啊</t>
+  </si>
+  <si>
+    <t>单行超出一定字符数时，会导致内存溢出崩溃</t>
+  </si>
+  <si>
+    <t>2019.8.3</t>
+  </si>
+  <si>
+    <t>古月良云(604746493)</t>
+  </si>
+  <si>
+    <t>自建模版，创建文件的时候更快捷一些</t>
+  </si>
+  <si>
+    <t>代码补全时function Class:Func() end这种，希望能自动填上Class</t>
+  </si>
+  <si>
+    <t>从外部拖动文件到文件夹时复制文件过去</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1355,10 +1382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1404,7 +1431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,6 +1446,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1427,7 +1461,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,8 +1483,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,31 +1521,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,9 +1544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,16 +1560,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,7 +1583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,7 +1601,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,37 +1667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,31 +1697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,25 +1715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,19 +1733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,25 +1763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,19 +1780,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1787,9 +1842,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,21 +1856,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,21 +1874,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1855,10 +1882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1867,133 +1894,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2379,10 +2406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4305,6 +4332,76 @@
         <v>239</v>
       </c>
       <c r="D135" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>240</v>
+      </c>
+      <c r="B136" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" t="s">
+        <v>242</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>240</v>
+      </c>
+      <c r="B137" t="s">
+        <v>219</v>
+      </c>
+      <c r="C137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
+        <v>245</v>
+      </c>
+      <c r="C138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>244</v>
+      </c>
+      <c r="B140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4354,84 +4451,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4439,16 +4536,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4456,19 +4553,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4479,10 +4576,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -4496,10 +4593,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -4513,10 +4610,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>150</v>
@@ -4530,10 +4627,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -4547,13 +4644,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -4564,10 +4661,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -4581,13 +4678,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -4598,84 +4695,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -4686,16 +4783,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -4706,16 +4803,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -4726,76 +4823,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -4806,81 +4903,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
         <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -4891,10 +4988,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -4908,10 +5005,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -4925,10 +5022,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -4942,10 +5039,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -4953,36 +5050,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -4993,10 +5090,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5004,16 +5101,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5027,13 +5124,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5044,13 +5141,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5061,13 +5158,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5078,13 +5175,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5095,10 +5192,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5112,13 +5209,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5129,16 +5226,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5149,13 +5246,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5166,10 +5263,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
         <v>134</v>
@@ -5177,142 +5274,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F49" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C51" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F52" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C53" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C54" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E55" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5323,16 +5420,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5343,16 +5440,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5363,16 +5460,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5383,16 +5480,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E59" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5403,16 +5500,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5423,96 +5520,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F65" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5523,16 +5620,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5543,16 +5640,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -5563,47 +5660,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -5611,16 +5708,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -5628,16 +5725,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B72" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C72" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -5645,39 +5742,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E73" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E74" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F74" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -5688,10 +5785,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -5705,64 +5802,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E76" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E77" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F77" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E78" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5770,16 +5867,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C80" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -5787,73 +5884,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E82" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C84" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F84" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -5864,16 +5961,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E85" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -5884,10 +5981,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -5895,22 +5992,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -5921,16 +6018,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -5941,10 +6038,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E89" t="s">
         <v>150</v>
@@ -5955,13 +6052,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -5969,19 +6066,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -5992,10 +6089,10 @@
         <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
         <v>127</v>
@@ -6009,16 +6106,16 @@
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E93" t="s">
         <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6029,10 +6126,10 @@
         <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
         <v>137</v>
@@ -6046,10 +6143,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
         <v>164</v>
@@ -6063,10 +6160,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E96" t="s">
         <v>164</v>
@@ -6074,16 +6171,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E97" t="s">
         <v>164</v>
@@ -6097,10 +6194,10 @@
         <v>140</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
         <v>164</v>
@@ -6111,16 +6208,16 @@
         <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6131,13 +6228,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6148,10 +6245,10 @@
         <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E101" t="s">
         <v>167</v>
@@ -6165,10 +6262,10 @@
         <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E102" t="s">
         <v>175</v>
@@ -6182,10 +6279,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E103" t="s">
         <v>179</v>
@@ -6199,10 +6296,10 @@
         <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E104" t="s">
         <v>179</v>
@@ -6213,13 +6310,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E105" t="s">
         <v>191</v>
@@ -6233,13 +6330,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6250,13 +6347,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E107" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6267,30 +6364,30 @@
         <v>157</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E108" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B109" t="s">
         <v>131</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E109" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6301,13 +6398,13 @@
         <v>217</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6318,10 +6415,10 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E111" t="s">
         <v>237</v>
@@ -6332,13 +6429,13 @@
         <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E112" t="s">
         <v>237</v>
@@ -6352,10 +6449,10 @@
         <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E113" t="s">
         <v>237</v>
@@ -6369,10 +6466,10 @@
         <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E114" t="s">
         <v>237</v>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895"/>
+    <workbookView windowWidth="21480" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="476">
   <si>
     <t>反馈时间</t>
   </si>
@@ -772,6 +772,84 @@
     <t>从外部拖动文件到文件夹时复制文件过去</t>
   </si>
   <si>
+    <t>2019.8.5</t>
+  </si>
+  <si>
+    <t>大魔王有木桑(1227380830)</t>
+  </si>
+  <si>
+    <t>罗技鼠标慢速滚动时有问题</t>
+  </si>
+  <si>
+    <t>输入法中文输入窗口的位置有问题</t>
+  </si>
+  <si>
+    <t>自定义背景图片</t>
+  </si>
+  <si>
+    <t>2019.8.7</t>
+  </si>
+  <si>
+    <t>起跑线To(2268334885)</t>
+  </si>
+  <si>
+    <t>如果要封装LuaDebuggee.Print()到print里的话，就无法自动定位日志了</t>
+  </si>
+  <si>
+    <t>墟烟(1778400556)</t>
+  </si>
+  <si>
+    <t>ToLua执行print()会报错</t>
+  </si>
+  <si>
+    <t>2019.8.6</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>locals里显示Dummy，不正常</t>
+  </si>
+  <si>
+    <t>xlua的工程，dll的名字不一定是xlua</t>
+  </si>
+  <si>
+    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
+  </si>
+  <si>
+    <t>注解里的类型名没有自动完成</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
+  </si>
+  <si>
+    <t>johnd</t>
+  </si>
+  <si>
+    <t>不能查找引用</t>
+  </si>
+  <si>
+    <t>依赖注释来精确提示</t>
+  </si>
+  <si>
+    <t>不能精确跳转Table定义的地方</t>
+  </si>
+  <si>
+    <t>智能提示不能按tab来完成</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
+  </si>
+  <si>
+    <t>撤销到修改前的状态时，还是标记为已修改</t>
+  </si>
+  <si>
+    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
+  </si>
+  <si>
+    <t>函数提示里，出现了两个self</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1375,6 +1453,9 @@
   </si>
   <si>
     <t>cocos引擎无法调试，已提供测试包</t>
+  </si>
+  <si>
+    <t>函数里的局部变量被赋值成员，可能不需要被识别为类</t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1431,7 +1512,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,13 +1534,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1461,15 +1542,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1483,15 +1556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1508,21 +1572,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,9 +1602,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,8 +1631,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1583,13 +1664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,7 +1688,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,7 +1760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,19 +1796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,19 +1820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,91 +1832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,8 +1861,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1790,7 +1886,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1806,21 +1911,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,25 +1941,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1882,10 +1963,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1894,133 +1975,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2406,10 +2487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A149" sqref="$A149:$XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2417,6 +2498,7 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
   </cols>
@@ -4402,6 +4484,255 @@
         <v>248</v>
       </c>
       <c r="D140" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>249</v>
+      </c>
+      <c r="B142" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" t="s">
+        <v>245</v>
+      </c>
+      <c r="C143" t="s">
+        <v>253</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>254</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>259</v>
+      </c>
+      <c r="B147" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" t="s">
+        <v>263</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>259</v>
+      </c>
+      <c r="B149" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149" t="s">
+        <v>264</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>259</v>
+      </c>
+      <c r="B151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>259</v>
+      </c>
+      <c r="B152" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>259</v>
+      </c>
+      <c r="B153" t="s">
+        <v>266</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>259</v>
+      </c>
+      <c r="B154" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" t="s">
+        <v>270</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156" t="s">
+        <v>272</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" t="s">
+        <v>260</v>
+      </c>
+      <c r="C157" t="s">
+        <v>273</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>254</v>
+      </c>
+      <c r="B158" t="s">
+        <v>260</v>
+      </c>
+      <c r="C158" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4414,10 +4745,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4451,84 +4782,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4536,16 +4867,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4553,19 +4884,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4576,10 +4907,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -4593,10 +4924,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -4610,10 +4941,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>150</v>
@@ -4627,10 +4958,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -4644,13 +4975,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -4661,10 +4992,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -4678,13 +5009,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -4695,84 +5026,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -4783,16 +5114,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -4803,16 +5134,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -4823,76 +5154,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -4903,81 +5234,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B30" t="s">
         <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -4988,10 +5319,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5005,10 +5336,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5022,10 +5353,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5039,10 +5370,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5050,36 +5381,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5090,10 +5421,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5101,16 +5432,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5124,13 +5455,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5141,13 +5472,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5158,13 +5489,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5175,13 +5506,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5192,10 +5523,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5209,13 +5540,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5226,16 +5557,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5246,13 +5577,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5263,10 +5594,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
         <v>134</v>
@@ -5274,142 +5605,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F49" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F51" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C54" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5420,16 +5751,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5440,16 +5771,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5460,16 +5791,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5480,16 +5811,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="F59" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5500,16 +5831,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
+        <v>385</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5520,96 +5851,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="F62" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="F63" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5620,16 +5951,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5640,16 +5971,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -5660,47 +5991,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -5708,16 +6039,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -5725,16 +6056,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B72" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C72" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -5742,39 +6073,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="B73" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C73" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E73" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E74" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F74" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -5785,10 +6116,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -5802,64 +6133,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E76" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="F77" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5867,16 +6198,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -5884,73 +6215,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B84" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C84" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E84" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F84" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -5961,16 +6292,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="F85" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -5981,10 +6312,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -5992,22 +6323,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6018,16 +6349,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6038,10 +6369,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
         <v>150</v>
@@ -6052,13 +6383,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6066,19 +6397,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E91" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6089,10 +6420,10 @@
         <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E92" t="s">
         <v>127</v>
@@ -6106,16 +6437,16 @@
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E93" t="s">
         <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6126,10 +6457,10 @@
         <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E94" t="s">
         <v>137</v>
@@ -6143,10 +6474,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E95" t="s">
         <v>164</v>
@@ -6160,10 +6491,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s">
         <v>164</v>
@@ -6171,16 +6502,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B97" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E97" t="s">
         <v>164</v>
@@ -6194,10 +6525,10 @@
         <v>140</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
         <v>164</v>
@@ -6208,16 +6539,16 @@
         <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6228,13 +6559,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6245,10 +6576,10 @@
         <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
         <v>167</v>
@@ -6262,10 +6593,10 @@
         <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
         <v>175</v>
@@ -6279,10 +6610,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
         <v>179</v>
@@ -6296,10 +6627,10 @@
         <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
         <v>179</v>
@@ -6310,13 +6641,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E105" t="s">
         <v>191</v>
@@ -6330,13 +6661,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6347,13 +6678,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6364,30 +6695,30 @@
         <v>157</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="B109" t="s">
         <v>131</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6398,13 +6729,13 @@
         <v>217</v>
       </c>
       <c r="C110" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6415,10 +6746,10 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E111" t="s">
         <v>237</v>
@@ -6429,13 +6760,13 @@
         <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E112" t="s">
         <v>237</v>
@@ -6449,10 +6780,10 @@
         <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E113" t="s">
         <v>237</v>
@@ -6466,13 +6797,30 @@
         <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E114" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" t="s">
+        <v>475</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="8895"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="489">
   <si>
     <t>反馈时间</t>
   </si>
@@ -796,12 +796,6 @@
     <t>如果要封装LuaDebuggee.Print()到print里的话，就无法自动定位日志了</t>
   </si>
   <si>
-    <t>墟烟(1778400556)</t>
-  </si>
-  <si>
-    <t>ToLua执行print()会报错</t>
-  </si>
-  <si>
     <t>2019.8.6</t>
   </si>
   <si>
@@ -835,9 +829,6 @@
     <t>不能精确跳转Table定义的地方</t>
   </si>
   <si>
-    <t>智能提示不能按tab来完成</t>
-  </si>
-  <si>
     <t>Ctrl+P查找时，没加首字符匹配的权重</t>
   </si>
   <si>
@@ -848,6 +839,33 @@
   </si>
   <si>
     <t>函数提示里，出现了两个self</t>
+  </si>
+  <si>
+    <t>2019.8.9</t>
+  </si>
+  <si>
+    <t>Я7(394074705)</t>
+  </si>
+  <si>
+    <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
+  </si>
+  <si>
+    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
+  </si>
+  <si>
+    <t>Ctrl+鼠标点击跳转的功能</t>
+  </si>
+  <si>
+    <t>2019.8.8</t>
+  </si>
+  <si>
+    <t>直接在Project拖动文件进行文件移动操作</t>
+  </si>
+  <si>
+    <t>希望监视能跟堆栈结合起来</t>
+  </si>
+  <si>
+    <t>output窗口希望可以搜索</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1456,6 +1474,27 @@
   </si>
   <si>
     <t>函数里的局部变量被赋值成员，可能不需要被识别为类</t>
+  </si>
+  <si>
+    <t>重新加载Theme时没有重建里面的表</t>
+  </si>
+  <si>
+    <t>墟烟(1778400556)</t>
+  </si>
+  <si>
+    <t>ToLua执行print()会报错</t>
+  </si>
+  <si>
+    <t>单行过长时会导致崩溃</t>
+  </si>
+  <si>
+    <t>智能提示不能按tab来完成</t>
+  </si>
+  <si>
+    <t>2019.8.11</t>
+  </si>
+  <si>
+    <t>xlua.dll为特定名称时的调试支持</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1565,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1542,29 +1581,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1578,11 +1602,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1602,18 +1633,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1625,15 +1657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,6 +1674,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,7 +1715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,7 +1727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,13 +1757,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,19 +1817,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,19 +1859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,55 +1877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,11 +1897,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,74 +1986,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1963,10 +2002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1984,128 +2023,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,6 +2171,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2487,10 +2529,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A149" sqref="$A149:$XFD149"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2524,7 +2566,7 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3712,7 +3754,7 @@
       <c r="B86" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D86" s="7" t="s">
@@ -3740,7 +3782,7 @@
       <c r="B88" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="11" t="s">
         <v>156</v>
       </c>
       <c r="D88" s="7" t="s">
@@ -3855,7 +3897,7 @@
       <c r="B96" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -4180,7 +4222,7 @@
       <c r="A119" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C119" t="s">
@@ -4536,7 +4578,7 @@
       <c r="B144" t="s">
         <v>255</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="8" t="s">
         <v>256</v>
       </c>
       <c r="D144" s="7" t="s">
@@ -4545,13 +4587,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
-      </c>
-      <c r="C145" t="s">
         <v>258</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>9</v>
@@ -4559,13 +4601,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
+        <v>258</v>
+      </c>
+      <c r="C146" t="s">
         <v>260</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
@@ -4573,13 +4615,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
@@ -4587,13 +4629,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4601,38 +4643,41 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C149" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" t="s">
         <v>264</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>259</v>
-      </c>
-      <c r="B150" t="s">
-        <v>260</v>
       </c>
       <c r="C150" t="s">
         <v>265</v>
       </c>
+      <c r="D150" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" t="s">
         <v>266</v>
-      </c>
-      <c r="C151" t="s">
-        <v>267</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4640,13 +4685,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>9</v>
@@ -4654,13 +4699,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>9</v>
@@ -4668,13 +4713,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>9</v>
@@ -4685,10 +4730,10 @@
         <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>9</v>
@@ -4699,10 +4744,10 @@
         <v>254</v>
       </c>
       <c r="B156" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -4710,13 +4755,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
-      </c>
-      <c r="C157" t="s">
         <v>273</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>9</v>
@@ -4724,15 +4769,85 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D158" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>272</v>
+      </c>
+      <c r="B159" t="s">
+        <v>273</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" t="s">
+        <v>278</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>272</v>
+      </c>
+      <c r="B161" t="s">
+        <v>258</v>
+      </c>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" t="s">
+        <v>280</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" t="s">
+        <v>258</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D163" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4745,10 +4860,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4782,84 +4897,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4867,16 +4982,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4884,19 +4999,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4907,10 +5022,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -4924,10 +5039,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -4941,10 +5056,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>150</v>
@@ -4958,10 +5073,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -4975,13 +5090,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -4992,10 +5107,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -5009,13 +5124,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5026,84 +5141,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5114,16 +5229,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5134,16 +5249,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5154,76 +5269,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5234,81 +5349,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E27" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E28" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E29" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
         <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E30" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5319,10 +5434,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5336,10 +5451,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5353,10 +5468,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5370,10 +5485,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5381,36 +5496,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E36" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5421,10 +5536,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5432,16 +5547,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5455,13 +5570,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5472,13 +5587,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5489,13 +5604,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E42" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5506,13 +5621,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E43" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5523,10 +5638,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5540,13 +5655,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E45" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5557,16 +5672,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5577,13 +5692,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5594,10 +5709,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E48" t="s">
         <v>134</v>
@@ -5605,142 +5720,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C51" t="s">
+        <v>371</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F51" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C52" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C53" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E55" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5751,16 +5866,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5771,16 +5886,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5791,16 +5906,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5811,16 +5926,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E59" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F59" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5831,16 +5946,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5851,96 +5966,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E62" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F62" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E63" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F65" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5951,16 +6066,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5971,16 +6086,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -5991,47 +6106,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E69" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6039,16 +6154,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6056,16 +6171,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B72" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6073,39 +6188,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E74" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F74" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6116,10 +6231,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6133,64 +6248,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E76" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F77" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E78" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6198,16 +6313,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6215,73 +6330,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E81" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E82" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E83" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C84" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E84" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6292,16 +6407,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E85" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F85" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6312,10 +6427,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6323,22 +6438,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6349,16 +6464,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6369,10 +6484,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E89" t="s">
         <v>150</v>
@@ -6383,13 +6498,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6397,19 +6512,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E91" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6420,10 +6535,10 @@
         <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
         <v>127</v>
@@ -6437,16 +6552,16 @@
         <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
         <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6457,10 +6572,10 @@
         <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
         <v>137</v>
@@ -6474,10 +6589,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E95" t="s">
         <v>164</v>
@@ -6491,10 +6606,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E96" t="s">
         <v>164</v>
@@ -6502,16 +6617,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B97" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E97" t="s">
         <v>164</v>
@@ -6525,10 +6640,10 @@
         <v>140</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E98" t="s">
         <v>164</v>
@@ -6539,16 +6654,16 @@
         <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E99" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6559,13 +6674,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E100" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6576,10 +6691,10 @@
         <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E101" t="s">
         <v>167</v>
@@ -6593,10 +6708,10 @@
         <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E102" t="s">
         <v>175</v>
@@ -6610,10 +6725,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E103" t="s">
         <v>179</v>
@@ -6627,10 +6742,10 @@
         <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E104" t="s">
         <v>179</v>
@@ -6641,13 +6756,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E105" t="s">
         <v>191</v>
@@ -6661,13 +6776,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E106" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6678,13 +6793,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E107" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6695,30 +6810,30 @@
         <v>157</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E108" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B109" t="s">
         <v>131</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E109" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6729,13 +6844,13 @@
         <v>217</v>
       </c>
       <c r="C110" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E110" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6746,10 +6861,10 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E111" t="s">
         <v>237</v>
@@ -6760,13 +6875,13 @@
         <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E112" t="s">
         <v>237</v>
@@ -6780,10 +6895,10 @@
         <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E113" t="s">
         <v>237</v>
@@ -6797,10 +6912,10 @@
         <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E114" t="s">
         <v>237</v>
@@ -6808,19 +6923,104 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E115" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" t="s">
+        <v>483</v>
+      </c>
+      <c r="C117" t="s">
+        <v>484</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" t="s">
+        <v>485</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" t="s">
+        <v>264</v>
+      </c>
+      <c r="C119" t="s">
+        <v>486</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" t="s">
+        <v>488</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E120" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21000" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="487">
   <si>
     <t>反馈时间</t>
   </si>
@@ -371,12 +371,6 @@
     <t>鼠标悬停在文件选项的时候 显示本文件的绝对路径。</t>
   </si>
   <si>
-    <t>扣扣小妖(951061987)</t>
-  </si>
-  <si>
-    <t>修改faq，MyCustomLoader不是新增，而是直接去改内容。</t>
-  </si>
-  <si>
     <t>变量类型是LuaFunction的时候，能否把函数的地址也显示出来，才能比较两个函数是否相同。</t>
   </si>
   <si>
@@ -450,66 +444,57 @@
     <t>树形视图处鼠标上下左右移动的功能。</t>
   </si>
   <si>
+    <t>悬浮操作太过灵敏，造成困扰。</t>
+  </si>
+  <si>
+    <t>调试时能否不清除掉监视窗口的状态?能否延迟清除?</t>
+  </si>
+  <si>
+    <t>Rename不生效。</t>
+  </si>
+  <si>
+    <t>ULua里，Class.Instance这种c#属性会显示为nil。</t>
+  </si>
+  <si>
+    <t>2019.3.6</t>
+  </si>
+  <si>
+    <t>Track Active时没有向右滑动树形视图到视图项可见处。</t>
+  </si>
+  <si>
+    <t>某些情况下完全不提示的问题。</t>
+  </si>
+  <si>
+    <t>重新打开 没有恢复到我关闭的状态  我是在扩展显示器 关闭的 ，重新打开在主显示器。</t>
+  </si>
+  <si>
+    <t>MC _469MA(951061987)</t>
+  </si>
+  <si>
+    <t>CustomLuaLoader这个脚本在哪里，我怎么没找到。（需要修改faq文档）</t>
+  </si>
+  <si>
+    <t>夜(364199013)</t>
+  </si>
+  <si>
+    <t>在 Project 里面修改了文件名称。右边文件不会同时刷新。如果这个时候该文件处于未保存状态。保存后会生成一个之前的那个名称文件，且左边不会将新文件显示出来。</t>
+  </si>
+  <si>
+    <t>切换CallStack后，双击LuaFunction，有时候LuaPerfect崩溃。</t>
+  </si>
+  <si>
+    <t>运行时会崩溃。</t>
+  </si>
+  <si>
+    <t>暂时无法重现</t>
+  </si>
+  <si>
+    <t>整理一下dll被占用时的提示的交互。</t>
+  </si>
+  <si>
     <t>2019.3.16</t>
   </si>
   <si>
-    <t>dll(1126253077)</t>
-  </si>
-  <si>
-    <t>Tab键能也增加上自动补全代码功能。</t>
-  </si>
-  <si>
-    <t>悬浮操作太过灵敏，造成困扰。</t>
-  </si>
-  <si>
-    <t>调试时能否不清除掉监视窗口的状态?能否延迟清除?</t>
-  </si>
-  <si>
-    <t>Rename不生效。</t>
-  </si>
-  <si>
-    <t>ULua里，Class.Instance这种c#属性会显示为nil。</t>
-  </si>
-  <si>
-    <t>2019.3.6</t>
-  </si>
-  <si>
-    <t>Track Active时没有向右滑动树形视图到视图项可见处。</t>
-  </si>
-  <si>
-    <t>某些情况下完全不提示的问题。</t>
-  </si>
-  <si>
-    <t>重新打开 没有恢复到我关闭的状态  我是在扩展显示器 关闭的 ，重新打开在主显示器。</t>
-  </si>
-  <si>
-    <t>以为文档里MyCustomLoader是要新增的。</t>
-  </si>
-  <si>
-    <t>MC _469MA(951061987)</t>
-  </si>
-  <si>
-    <t>CustomLuaLoader这个脚本在哪里，我怎么没找到。（需要修改faq文档）</t>
-  </si>
-  <si>
-    <t>夜(364199013)</t>
-  </si>
-  <si>
-    <t>在 Project 里面修改了文件名称。右边文件不会同时刷新。如果这个时候该文件处于未保存状态。保存后会生成一个之前的那个名称文件，且左边不会将新文件显示出来。</t>
-  </si>
-  <si>
-    <t>切换CallStack后，双击LuaFunction，有时候LuaPerfect崩溃。</t>
-  </si>
-  <si>
-    <t>运行时会崩溃。</t>
-  </si>
-  <si>
-    <t>暂时无法重现</t>
-  </si>
-  <si>
-    <t>整理一下dll被占用时的提示的交互。</t>
-  </si>
-  <si>
     <t>Ctrl+Z 不能去掉*号。</t>
   </si>
   <si>
@@ -609,9 +594,6 @@
     <t>2019.4.3</t>
   </si>
   <si>
-    <t>折叠的文本，修改时会自动全部展开的问题。</t>
-  </si>
-  <si>
     <t>frank</t>
   </si>
   <si>
@@ -697,9 +679,6 @@
   </si>
   <si>
     <t>希望3°可以提供cocos编译dll的文档</t>
-  </si>
-  <si>
-    <t>发生修改时会自动取消所有折叠</t>
   </si>
   <si>
     <t>2019.7.2</t>
@@ -754,9 +733,6 @@
     <t>有没有类似idea那个直接创建模板代码的东西啊</t>
   </si>
   <si>
-    <t>单行超出一定字符数时，会导致内存溢出崩溃</t>
-  </si>
-  <si>
     <t>2019.8.3</t>
   </si>
   <si>
@@ -1495,6 +1471,24 @@
   </si>
   <si>
     <t>xlua.dll为特定名称时的调试支持</t>
+  </si>
+  <si>
+    <t>扣扣小妖(951061987)</t>
+  </si>
+  <si>
+    <t>发生修改时会自动取消所有折叠</t>
+  </si>
+  <si>
+    <t>以为文档里MyCustomLoader是要新增的。</t>
+  </si>
+  <si>
+    <t>dll(1126253077)</t>
+  </si>
+  <si>
+    <t>Tab键能也增加上自动补全代码功能。</t>
+  </si>
+  <si>
+    <t>修改faq，MyCustomLoader不是新增，而是直接去改内容。</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1551,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,8 +1602,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,29 +1619,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,29 +1659,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,15 +1682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1703,19 +1697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,19 +1721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,31 +1745,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,7 +1781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,7 +1793,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,67 +1871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,36 +1888,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1951,20 +1915,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1986,11 +1958,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2002,10 +1996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2014,137 +2008,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2171,9 +2165,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2529,10 +2520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2566,7 +2557,7 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3455,13 +3446,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>9</v>
@@ -3472,7 +3463,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>119</v>
@@ -3514,24 +3505,24 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="27" spans="1:4">
+      <c r="A70" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" t="s">
-        <v>52</v>
+      <c r="B70" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>9</v>
@@ -3539,26 +3530,26 @@
     </row>
     <row r="71" ht="27" spans="1:4">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" ht="27" spans="1:4">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -3567,13 +3558,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>9</v>
@@ -3581,13 +3572,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
         <v>133</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>9</v>
@@ -3595,13 +3586,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="7" t="s">
         <v>136</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>9</v>
@@ -3609,12 +3600,12 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -3626,10 +3617,10 @@
         <v>55</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>9</v>
@@ -3637,13 +3628,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>9</v>
@@ -3651,13 +3642,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" t="s">
-        <v>144</v>
+        <v>71</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>9</v>
@@ -3665,13 +3656,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>9</v>
@@ -3679,13 +3670,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>9</v>
@@ -3693,13 +3684,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>9</v>
@@ -3707,27 +3698,27 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" ht="27" spans="1:4">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>151</v>
+        <v>46</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>9</v>
@@ -3735,27 +3726,27 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="D85" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>9</v>
@@ -3763,41 +3754,44 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="D88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
         <v>155</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" t="s">
-        <v>157</v>
+        <v>55</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>9</v>
@@ -3805,44 +3799,41 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>127</v>
-      </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>9</v>
@@ -3850,41 +3841,44 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
         <v>165</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>9</v>
@@ -3892,72 +3886,72 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="D96" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
         <v>168</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="D97" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>9</v>
@@ -3965,44 +3959,41 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
         <v>104</v>
       </c>
       <c r="C101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>174</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>175</v>
-      </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>179</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" t="s">
         <v>180</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>9</v>
@@ -4012,11 +4003,11 @@
       <c r="A104" t="s">
         <v>179</v>
       </c>
-      <c r="B104" t="s">
-        <v>104</v>
+      <c r="B104" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>9</v>
@@ -4024,12 +4015,12 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>179</v>
-      </c>
-      <c r="B105" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D105" s="7" t="s">
@@ -4038,13 +4029,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" t="s">
         <v>184</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" t="s">
-        <v>185</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>9</v>
@@ -4052,13 +4043,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>184</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>131</v>
+        <v>182</v>
+      </c>
+      <c r="B107" t="s">
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>9</v>
@@ -4066,13 +4057,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
         <v>187</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>9</v>
@@ -4080,13 +4071,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
@@ -4094,13 +4085,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>9</v>
@@ -4108,12 +4099,12 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" t="s">
         <v>191</v>
       </c>
-      <c r="B111" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="C111" s="8" t="s">
         <v>192</v>
       </c>
       <c r="D111" s="7" t="s">
@@ -4122,13 +4113,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>131</v>
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>191</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>9</v>
@@ -4136,13 +4127,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" t="s">
         <v>193</v>
-      </c>
-      <c r="B113" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" t="s">
-        <v>194</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>9</v>
@@ -4150,69 +4141,69 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="D114" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" t="s">
         <v>196</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="D115" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>195</v>
-      </c>
-      <c r="B116" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>163</v>
+      <c r="C116" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>195</v>
-      </c>
-      <c r="B117" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" t="s">
-        <v>199</v>
+      <c r="A117" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>131</v>
+      <c r="A118" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>9</v>
@@ -4220,54 +4211,54 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C119" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>205</v>
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>208</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="7" t="s">
+      <c r="A121" t="s">
         <v>206</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" t="s">
         <v>207</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>208</v>
+      <c r="C121" t="s">
+        <v>209</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="8" t="s">
+      <c r="A122" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" t="s">
         <v>210</v>
       </c>
       <c r="D122" s="7" t="s">
@@ -4275,14 +4266,14 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>11</v>
+      <c r="A123" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" t="s">
+        <v>211</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
@@ -4290,7 +4281,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B124" t="s">
         <v>213</v>
@@ -4304,13 +4295,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
-      </c>
-      <c r="C125" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
@@ -4318,41 +4309,44 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" ht="62" customHeight="1" spans="1:6">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
+        <v>222</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="1:4">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
-      </c>
-      <c r="C128" t="s">
-        <v>220</v>
+        <v>225</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4360,13 +4354,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="C129" t="s">
+        <v>229</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4374,13 +4368,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
@@ -4388,44 +4382,41 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="C131" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" ht="62" customHeight="1" spans="1:6">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" t="s">
-        <v>229</v>
+        <v>237</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="133" ht="27" spans="1:4">
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="C133" t="s">
+        <v>239</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>9</v>
@@ -4433,13 +4424,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>9</v>
@@ -4447,13 +4438,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>9</v>
@@ -4461,13 +4452,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>9</v>
@@ -4475,13 +4466,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
-      </c>
-      <c r="C137" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>9</v>
@@ -4489,13 +4480,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
-      </c>
-      <c r="C138" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>9</v>
@@ -4503,13 +4494,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>9</v>
@@ -4517,13 +4508,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C140" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>9</v>
@@ -4537,7 +4528,7 @@
         <v>250</v>
       </c>
       <c r="C141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
@@ -4548,10 +4539,10 @@
         <v>249</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
@@ -4562,10 +4553,10 @@
         <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C143" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
@@ -4573,13 +4564,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" s="8" t="s">
         <v>256</v>
+      </c>
+      <c r="C144" t="s">
+        <v>257</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
@@ -4587,13 +4578,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" t="s">
         <v>258</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>9</v>
@@ -4601,13 +4592,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
@@ -4615,13 +4606,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
@@ -4629,13 +4620,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4643,13 +4634,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B149" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>9</v>
@@ -4657,13 +4648,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>9</v>
@@ -4671,12 +4662,12 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
-      </c>
-      <c r="C151" t="s">
+        <v>265</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>266</v>
       </c>
       <c r="D151" s="7" t="s">
@@ -4685,10 +4676,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C152" t="s">
         <v>267</v>
@@ -4699,12 +4690,12 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
-      </c>
-      <c r="C153" t="s">
+        <v>265</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>268</v>
       </c>
       <c r="D153" s="7" t="s">
@@ -4713,13 +4704,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>9</v>
@@ -4727,13 +4718,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>9</v>
@@ -4741,13 +4732,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -4755,99 +4746,15 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>272</v>
-      </c>
-      <c r="B158" t="s">
-        <v>52</v>
-      </c>
-      <c r="C158" t="s">
-        <v>275</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>272</v>
-      </c>
-      <c r="B159" t="s">
-        <v>273</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>277</v>
-      </c>
-      <c r="B160" t="s">
-        <v>255</v>
-      </c>
-      <c r="C160" t="s">
-        <v>278</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>272</v>
-      </c>
-      <c r="B161" t="s">
-        <v>258</v>
-      </c>
-      <c r="C161" t="s">
-        <v>279</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>272</v>
-      </c>
-      <c r="B162" t="s">
-        <v>258</v>
-      </c>
-      <c r="C162" t="s">
-        <v>280</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" t="s">
-        <v>258</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D163" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4860,10 +4767,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4897,84 +4804,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4982,16 +4889,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4999,19 +4906,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5022,10 +4929,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -5039,10 +4946,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -5056,13 +4963,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
@@ -5073,10 +4980,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -5090,13 +4997,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5107,10 +5014,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -5124,13 +5031,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5141,84 +5048,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5229,16 +5136,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5249,16 +5156,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5269,76 +5176,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F26" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5349,81 +5256,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5434,10 +5341,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5451,10 +5358,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5468,10 +5375,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5485,10 +5392,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5496,36 +5403,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5536,10 +5443,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5547,16 +5454,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5570,13 +5477,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5587,13 +5494,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5604,13 +5511,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5621,13 +5528,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5638,10 +5545,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5655,13 +5562,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5672,16 +5579,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5692,170 +5599,170 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" t="s">
+        <v>359</v>
+      </c>
+      <c r="C50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B50" t="s">
-        <v>367</v>
-      </c>
-      <c r="C50" t="s">
-        <v>368</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C51" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C52" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" t="s">
         <v>367</v>
       </c>
-      <c r="C53" t="s">
-        <v>375</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F53" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5866,16 +5773,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5886,16 +5793,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5906,16 +5813,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5926,16 +5833,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F59" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5946,16 +5853,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5966,96 +5873,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F62" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F63" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6066,16 +5973,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6086,16 +5993,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6106,47 +6013,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6154,16 +6061,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6171,16 +6078,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C72" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6188,39 +6095,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C73" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E73" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E74" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6231,10 +6138,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6248,64 +6155,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E76" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F77" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6313,16 +6220,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6330,73 +6237,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B84" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C84" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F84" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6407,16 +6314,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F85" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6427,10 +6334,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6438,22 +6345,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6464,33 +6371,33 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:5">
@@ -6498,13 +6405,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6512,73 +6419,73 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:6">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:5">
@@ -6589,47 +6496,47 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:5">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B97" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:5">
@@ -6637,118 +6544,118 @@
         <v>55</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:5">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:5">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:5">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:5">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:5">
@@ -6756,16 +6663,16 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:5">
@@ -6776,81 +6683,81 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E106" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C110" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E110" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6861,166 +6768,234 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E111" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B112" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E113" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E115" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>482</v>
+        <v>265</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E116" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B117" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C117" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C120" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>257</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>217</v>
+      </c>
+      <c r="B121" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" t="s">
+        <v>482</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E121" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" t="s">
+        <v>481</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" t="s">
+        <v>484</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E123" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" t="s">
+        <v>481</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9480"/>
+    <workbookView windowWidth="21000" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="487">
   <si>
     <t>反馈时间</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>frank</t>
-  </si>
-  <si>
-    <t>日志的功能，能否允许跳转往上一级的，希望可以自定义向上跳过的函数名列表。</t>
   </si>
   <si>
     <t>提供一个菜单配置，是否自动复制那个ThirdParty目录，也提供一个菜单手动复制。</t>
@@ -763,76 +760,73 @@
     <t>自定义背景图片</t>
   </si>
   <si>
+    <t>2019.8.6</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>locals里显示Dummy，不正常</t>
+  </si>
+  <si>
+    <t>xlua的工程，dll的名字不一定是xlua</t>
+  </si>
+  <si>
+    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
+  </si>
+  <si>
+    <t>注解里的类型名没有自动完成</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
+  </si>
+  <si>
+    <t>johnd</t>
+  </si>
+  <si>
+    <t>不能查找引用</t>
+  </si>
+  <si>
+    <t>依赖注释来精确提示</t>
+  </si>
+  <si>
+    <t>不能精确跳转Table定义的地方</t>
+  </si>
+  <si>
     <t>2019.8.7</t>
   </si>
   <si>
+    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
+  </si>
+  <si>
+    <t>撤销到修改前的状态时，还是标记为已修改</t>
+  </si>
+  <si>
+    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
+  </si>
+  <si>
+    <t>函数提示里，出现了两个self</t>
+  </si>
+  <si>
+    <t>2019.8.9</t>
+  </si>
+  <si>
+    <t>Я7(394074705)</t>
+  </si>
+  <si>
+    <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
+  </si>
+  <si>
+    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
+  </si>
+  <si>
+    <t>Ctrl+鼠标点击跳转的功能</t>
+  </si>
+  <si>
+    <t>2019.8.8</t>
+  </si>
+  <si>
     <t>起跑线To(2268334885)</t>
-  </si>
-  <si>
-    <t>如果要封装LuaDebuggee.Print()到print里的话，就无法自动定位日志了</t>
-  </si>
-  <si>
-    <t>2019.8.6</t>
-  </si>
-  <si>
-    <t>hop</t>
-  </si>
-  <si>
-    <t>locals里显示Dummy，不正常</t>
-  </si>
-  <si>
-    <t>xlua的工程，dll的名字不一定是xlua</t>
-  </si>
-  <si>
-    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
-  </si>
-  <si>
-    <t>注解里的类型名没有自动完成</t>
-  </si>
-  <si>
-    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
-  </si>
-  <si>
-    <t>johnd</t>
-  </si>
-  <si>
-    <t>不能查找引用</t>
-  </si>
-  <si>
-    <t>依赖注释来精确提示</t>
-  </si>
-  <si>
-    <t>不能精确跳转Table定义的地方</t>
-  </si>
-  <si>
-    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
-  </si>
-  <si>
-    <t>撤销到修改前的状态时，还是标记为已修改</t>
-  </si>
-  <si>
-    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
-  </si>
-  <si>
-    <t>函数提示里，出现了两个self</t>
-  </si>
-  <si>
-    <t>2019.8.9</t>
-  </si>
-  <si>
-    <t>Я7(394074705)</t>
-  </si>
-  <si>
-    <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
-  </si>
-  <si>
-    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
-  </si>
-  <si>
-    <t>Ctrl+鼠标点击跳转的功能</t>
-  </si>
-  <si>
-    <t>2019.8.8</t>
   </si>
   <si>
     <t>直接在Project拖动文件进行文件移动操作</t>
@@ -1489,6 +1483,12 @@
   </si>
   <si>
     <t>修改faq，MyCustomLoader不是新增，而是直接去改内容。</t>
+  </si>
+  <si>
+    <t>日志的功能，能否允许跳转往上一级的，希望可以自定义向上跳过的函数名列表。</t>
+  </si>
+  <si>
+    <t>如果要封装LuaDebuggee.Print()到print里的话，就无法自动定位日志了</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1496,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1545,28 +1545,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1574,21 +1552,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,17 +1588,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,6 +1615,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1659,30 +1674,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,127 +1697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,13 +1709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,7 +1727,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,19 +1811,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,6 +1888,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1915,17 +1939,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1955,39 +1988,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1996,10 +1996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,133 +2008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2520,10 +2520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4104,8 +4104,8 @@
       <c r="B111" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>192</v>
+      <c r="C111" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>9</v>
@@ -4118,8 +4118,8 @@
       <c r="B112" t="s">
         <v>191</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>158</v>
+      <c r="C112" t="s">
+        <v>192</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>9</v>
@@ -4127,26 +4127,26 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>190</v>
-      </c>
-      <c r="B113" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" t="s">
         <v>193</v>
       </c>
+      <c r="B113" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="D113" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>194</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" t="s">
         <v>195</v>
       </c>
       <c r="D114" s="7" t="s">
@@ -4155,13 +4155,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C115" t="s">
         <v>196</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>9</v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>9</v>
@@ -4183,13 +4183,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>9</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>11</v>
@@ -4210,14 +4210,14 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="A119" t="s">
         <v>205</v>
+      </c>
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>207</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>9</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>205</v>
+      </c>
+      <c r="B120" t="s">
         <v>206</v>
-      </c>
-      <c r="B120" t="s">
-        <v>207</v>
       </c>
       <c r="C120" t="s">
         <v>208</v>
@@ -4239,10 +4239,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" t="s">
         <v>206</v>
-      </c>
-      <c r="B121" t="s">
-        <v>207</v>
       </c>
       <c r="C121" t="s">
         <v>209</v>
@@ -4253,13 +4253,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
-      </c>
-      <c r="C122" t="s">
         <v>210</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>9</v>
@@ -4267,13 +4267,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
-      </c>
-      <c r="C123" s="8" t="s">
         <v>212</v>
+      </c>
+      <c r="C123" t="s">
+        <v>213</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
@@ -4281,13 +4281,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
-      </c>
-      <c r="C124" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>9</v>
@@ -4295,58 +4295,58 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B125" t="s">
-        <v>211</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="C125" t="s">
+        <v>218</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" ht="62" customHeight="1" spans="1:6">
       <c r="A126" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" ht="62" customHeight="1" spans="1:6">
+      <c r="F126" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" ht="27" spans="1:4">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="128" ht="27" spans="1:4">
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="C128" t="s">
+        <v>228</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4354,13 +4354,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4368,13 +4368,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
@@ -4382,13 +4382,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
-      </c>
-      <c r="C131" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
@@ -4396,12 +4396,12 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
+        <v>235</v>
+      </c>
+      <c r="B132" t="s">
         <v>236</v>
       </c>
-      <c r="B132" t="s">
-        <v>237</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" t="s">
         <v>238</v>
       </c>
       <c r="D132" s="7" t="s">
@@ -4410,10 +4410,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
+        <v>235</v>
+      </c>
+      <c r="B133" t="s">
         <v>236</v>
-      </c>
-      <c r="B133" t="s">
-        <v>237</v>
       </c>
       <c r="C133" t="s">
         <v>239</v>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>9</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
         <v>243</v>
@@ -4452,12 +4452,12 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
-      </c>
-      <c r="C136" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>244</v>
       </c>
       <c r="D136" s="7" t="s">
@@ -4466,13 +4466,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>9</v>
@@ -4480,12 +4480,12 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" t="s">
         <v>246</v>
       </c>
-      <c r="B138" t="s">
-        <v>247</v>
-      </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" t="s">
         <v>248</v>
       </c>
       <c r="D138" s="7" t="s">
@@ -4494,13 +4494,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
+        <v>245</v>
+      </c>
+      <c r="B139" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" t="s">
         <v>249</v>
-      </c>
-      <c r="B139" t="s">
-        <v>250</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>9</v>
@@ -4508,13 +4508,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" t="s">
         <v>250</v>
-      </c>
-      <c r="C140" t="s">
-        <v>252</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>9</v>
@@ -4522,13 +4522,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
@@ -4536,13 +4536,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
@@ -4564,13 +4564,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C144" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
@@ -4578,13 +4578,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>9</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
         <v>246</v>
       </c>
-      <c r="B147" t="s">
-        <v>250</v>
-      </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" t="s">
         <v>246</v>
       </c>
-      <c r="B148" t="s">
-        <v>250</v>
-      </c>
       <c r="C148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4634,13 +4634,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
-      </c>
-      <c r="C149" t="s">
         <v>262</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>9</v>
@@ -4648,13 +4648,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>9</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
+        <v>262</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4676,13 +4676,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="C152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>9</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>268</v>
+        <v>246</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>9</v>
@@ -4704,57 +4704,15 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C154" t="s">
         <v>270</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>264</v>
-      </c>
-      <c r="B155" t="s">
-        <v>250</v>
-      </c>
-      <c r="C155" t="s">
-        <v>271</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>264</v>
-      </c>
-      <c r="B156" t="s">
-        <v>250</v>
-      </c>
-      <c r="C156" t="s">
-        <v>272</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>264</v>
-      </c>
-      <c r="B157" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D157" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4767,10 +4725,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4804,84 +4762,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4889,16 +4847,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4906,19 +4864,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4929,10 +4887,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -4946,10 +4904,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -4963,10 +4921,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>145</v>
@@ -4980,10 +4938,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -4997,13 +4955,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5014,10 +4972,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -5031,13 +4989,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5048,84 +5006,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" t="s">
         <v>303</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5136,16 +5094,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5156,16 +5114,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5176,76 +5134,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>314</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F24" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5256,81 +5214,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s">
         <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5341,10 +5299,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5358,10 +5316,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5375,10 +5333,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5392,10 +5350,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5403,36 +5361,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5443,10 +5401,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5454,16 +5412,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5477,13 +5435,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5494,13 +5452,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5511,13 +5469,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5528,13 +5486,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5545,10 +5503,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5562,13 +5520,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5579,16 +5537,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5599,13 +5557,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5616,10 +5574,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
         <v>132</v>
@@ -5627,142 +5585,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" t="s">
         <v>354</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" t="s">
         <v>356</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F49" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s">
+        <v>357</v>
+      </c>
+      <c r="C50" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C52" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C53" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F53" t="s">
         <v>367</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F53" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" t="s">
         <v>368</v>
       </c>
-      <c r="B54" t="s">
-        <v>355</v>
-      </c>
-      <c r="C54" t="s">
-        <v>370</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5773,16 +5731,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5793,16 +5751,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5813,16 +5771,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5833,16 +5791,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E59" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" t="s">
         <v>380</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" t="s">
-        <v>381</v>
-      </c>
-      <c r="F59" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5853,16 +5811,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5873,96 +5831,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F62" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F63" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5973,16 +5931,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5993,16 +5951,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6013,47 +5971,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6061,16 +6019,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6078,16 +6036,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6095,39 +6053,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s">
+        <v>403</v>
+      </c>
+      <c r="C73" t="s">
         <v>405</v>
       </c>
-      <c r="C73" t="s">
-        <v>407</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E73" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>407</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E74" t="s">
+        <v>408</v>
+      </c>
+      <c r="F74" t="s">
         <v>409</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E74" t="s">
-        <v>410</v>
-      </c>
-      <c r="F74" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6138,10 +6096,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6155,64 +6113,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E76" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E77" t="s">
+        <v>412</v>
+      </c>
+      <c r="F77" t="s">
         <v>414</v>
-      </c>
-      <c r="F77" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6220,16 +6178,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6237,73 +6195,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E83" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" t="s">
         <v>425</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" t="s">
         <v>426</v>
-      </c>
-      <c r="C84" t="s">
-        <v>427</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E84" t="s">
-        <v>300</v>
-      </c>
-      <c r="F84" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6314,16 +6272,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E85" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6334,10 +6292,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6345,22 +6303,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6371,16 +6329,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6391,10 +6349,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
@@ -6405,13 +6363,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6419,19 +6377,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E91" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6442,10 +6400,10 @@
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
         <v>125</v>
@@ -6459,16 +6417,16 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E93" t="s">
         <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6479,10 +6437,10 @@
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E94" t="s">
         <v>135</v>
@@ -6496,10 +6454,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E95" t="s">
         <v>159</v>
@@ -6513,10 +6471,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E96" t="s">
         <v>159</v>
@@ -6524,16 +6482,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B97" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
         <v>159</v>
@@ -6547,10 +6505,10 @@
         <v>138</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
         <v>159</v>
@@ -6561,16 +6519,16 @@
         <v>159</v>
       </c>
       <c r="B99" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99" t="s">
         <v>450</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E99" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6581,13 +6539,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E100" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6598,10 +6556,10 @@
         <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
         <v>162</v>
@@ -6615,10 +6573,10 @@
         <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
         <v>170</v>
@@ -6632,10 +6590,10 @@
         <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E103" t="s">
         <v>174</v>
@@ -6649,10 +6607,10 @@
         <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E104" t="s">
         <v>174</v>
@@ -6663,13 +6621,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E105" t="s">
         <v>186</v>
@@ -6683,13 +6641,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6700,13 +6658,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6717,47 +6675,47 @@
         <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E108" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s">
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E109" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E110" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6768,183 +6726,183 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
       <c r="A113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" t="s">
         <v>206</v>
       </c>
-      <c r="B113" t="s">
-        <v>207</v>
-      </c>
       <c r="C113" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" t="s">
         <v>217</v>
       </c>
-      <c r="B114" t="s">
-        <v>218</v>
-      </c>
       <c r="C114" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E115" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E116" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C117" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E117" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E119" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E120" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C121" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E121" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6952,16 +6910,16 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6969,16 +6927,16 @@
         <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E123" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6986,16 +6944,67 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E125" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E124" t="s">
-        <v>479</v>
+      <c r="D126" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E127" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9480" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="495">
   <si>
     <t>反馈时间</t>
   </si>
@@ -838,6 +838,24 @@
     <t>output窗口希望可以搜索</t>
   </si>
   <si>
+    <t>2019.8.12</t>
+  </si>
+  <si>
+    <t>直接在拖文件到Project进行文件复制操作</t>
+  </si>
+  <si>
+    <t>希望在Output界面添加搜索功能</t>
+  </si>
+  <si>
+    <t>2019.8.13</t>
+  </si>
+  <si>
+    <t>希望支持UnLua</t>
+  </si>
+  <si>
+    <t>希望支持正则表达式</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1489,6 +1507,12 @@
   </si>
   <si>
     <t>如果要封装LuaDebuggee.Print()到print里的话，就无法自动定位日志了</t>
+  </si>
+  <si>
+    <t>淡然^_^(974129205)</t>
+  </si>
+  <si>
+    <t>32位unity 4.7.1下提示attempt to load the C runtime library incorrectly的问题</t>
   </si>
 </sst>
 </file>
@@ -1496,8 +1520,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1545,21 +1569,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,7 +1584,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,45 +1606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,8 +1620,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,9 +1630,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1680,9 +1668,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,43 +1721,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1757,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,49 +1799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,13 +1817,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,31 +1871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,26 +1915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1939,16 +1954,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1974,17 +2004,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1996,10 +2020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,133 +2032,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2520,10 +2544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4716,6 +4740,90 @@
         <v>9</v>
       </c>
     </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>271</v>
+      </c>
+      <c r="B155" t="s">
+        <v>236</v>
+      </c>
+      <c r="C155" t="s">
+        <v>272</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>271</v>
+      </c>
+      <c r="B156" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" t="s">
+        <v>273</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" t="s">
+        <v>275</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" t="s">
+        <v>276</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>274</v>
+      </c>
+      <c r="B159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" t="s">
+        <v>276</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>274</v>
+      </c>
+      <c r="B160" t="s">
+        <v>241</v>
+      </c>
+      <c r="C160" t="s">
+        <v>275</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4725,10 +4833,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4762,84 +4870,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4847,16 +4955,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4864,19 +4972,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4887,10 +4995,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -4904,10 +5012,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -4921,10 +5029,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>145</v>
@@ -4938,10 +5046,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -4955,13 +5063,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -4972,10 +5080,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -4989,13 +5097,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5006,84 +5114,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5094,16 +5202,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5114,16 +5222,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5134,76 +5242,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5214,81 +5322,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s">
         <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5299,10 +5407,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5316,10 +5424,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5333,10 +5441,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5350,10 +5458,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5361,36 +5469,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E36" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5401,10 +5509,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5412,16 +5520,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5435,13 +5543,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E40" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5452,13 +5560,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5469,13 +5577,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5486,13 +5594,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E43" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5503,10 +5611,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5520,13 +5628,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5537,16 +5645,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5557,13 +5665,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E47" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5574,10 +5682,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
         <v>132</v>
@@ -5585,142 +5693,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F49" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C51" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F51" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C52" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F52" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5731,16 +5839,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5751,16 +5859,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5771,16 +5879,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5791,16 +5899,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E59" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F59" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5811,16 +5919,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5831,96 +5939,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F62" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E63" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F63" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E65" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F65" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -5931,16 +6039,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -5951,16 +6059,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -5971,47 +6079,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6019,16 +6127,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6036,16 +6144,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6053,39 +6161,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C73" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E74" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F74" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6096,10 +6204,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6113,64 +6221,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E76" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F77" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6178,16 +6286,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C80" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6195,73 +6303,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E82" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E83" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6272,16 +6380,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E85" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F85" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6292,10 +6400,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6303,22 +6411,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6329,16 +6437,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6349,10 +6457,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
@@ -6363,13 +6471,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6377,19 +6485,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E91" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6400,10 +6508,10 @@
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E92" t="s">
         <v>125</v>
@@ -6417,16 +6525,16 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
         <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6437,10 +6545,10 @@
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E94" t="s">
         <v>135</v>
@@ -6454,10 +6562,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E95" t="s">
         <v>159</v>
@@ -6471,10 +6579,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
         <v>159</v>
@@ -6482,16 +6590,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E97" t="s">
         <v>159</v>
@@ -6505,10 +6613,10 @@
         <v>138</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
         <v>159</v>
@@ -6519,16 +6627,16 @@
         <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E99" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6539,13 +6647,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E100" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6556,10 +6664,10 @@
         <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E101" t="s">
         <v>162</v>
@@ -6573,10 +6681,10 @@
         <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
         <v>170</v>
@@ -6590,10 +6698,10 @@
         <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
         <v>174</v>
@@ -6607,10 +6715,10 @@
         <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
         <v>174</v>
@@ -6621,13 +6729,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
         <v>186</v>
@@ -6641,13 +6749,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6658,13 +6766,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E107" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6675,30 +6783,30 @@
         <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E108" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B109" t="s">
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E109" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6709,13 +6817,13 @@
         <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E110" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6726,10 +6834,10 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E111" t="s">
         <v>229</v>
@@ -6740,13 +6848,13 @@
         <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E112" t="s">
         <v>229</v>
@@ -6760,10 +6868,10 @@
         <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E113" t="s">
         <v>229</v>
@@ -6777,10 +6885,10 @@
         <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E114" t="s">
         <v>229</v>
@@ -6794,10 +6902,10 @@
         <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E115" t="s">
         <v>245</v>
@@ -6811,10 +6919,10 @@
         <v>262</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E116" t="s">
         <v>261</v>
@@ -6825,13 +6933,13 @@
         <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C117" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E117" t="s">
         <v>261</v>
@@ -6845,10 +6953,10 @@
         <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E118" t="s">
         <v>232</v>
@@ -6862,13 +6970,13 @@
         <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6879,10 +6987,10 @@
         <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E120" t="s">
         <v>245</v>
@@ -6893,16 +7001,16 @@
         <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C121" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E121" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6910,16 +7018,16 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E122" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6927,16 +7035,16 @@
         <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E123" t="s">
         <v>483</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6944,16 +7052,16 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E124" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6964,13 +7072,13 @@
         <v>191</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E125" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6981,13 +7089,13 @@
         <v>267</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E126" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -6998,13 +7106,30 @@
         <v>246</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E127" t="s">
-        <v>477</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" t="s">
+        <v>493</v>
+      </c>
+      <c r="C128" t="s">
+        <v>494</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E128" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="17370" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="505">
   <si>
     <t>反馈时间</t>
   </si>
@@ -854,6 +854,36 @@
   </si>
   <si>
     <t>希望支持正则表达式</t>
+  </si>
+  <si>
+    <t>2019.8.15</t>
+  </si>
+  <si>
+    <t>...(961451518)</t>
+  </si>
+  <si>
+    <t>希望支持插件化</t>
+  </si>
+  <si>
+    <t>HKW(1397796710)</t>
+  </si>
+  <si>
+    <t>Unity里的封装用LP打开Lua文件的代码</t>
+  </si>
+  <si>
+    <t>joaryyu</t>
+  </si>
+  <si>
+    <t>插件化</t>
+  </si>
+  <si>
+    <t>快捷键可以自定义</t>
+  </si>
+  <si>
+    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
+  </si>
+  <si>
+    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1520,8 +1550,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1569,14 +1599,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,21 +1636,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1628,9 +1649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,6 +1662,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1668,6 +1711,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1675,38 +1734,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,13 +1751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +1775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1805,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,13 +1853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,13 +1883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,79 +1901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,13 +1919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,47 +1969,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2004,11 +1998,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,10 +2050,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2032,133 +2062,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2544,10 +2574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4822,6 +4852,89 @@
       </c>
       <c r="D160" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" t="s">
+        <v>280</v>
+      </c>
+      <c r="C162" t="s">
+        <v>281</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" t="s">
+        <v>282</v>
+      </c>
+      <c r="C163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" t="s">
+        <v>282</v>
+      </c>
+      <c r="C164" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" t="s">
+        <v>246</v>
+      </c>
+      <c r="C166" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4870,84 +4983,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -4955,16 +5068,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -4972,19 +5085,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -4995,10 +5108,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -5012,10 +5125,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -5029,10 +5142,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>145</v>
@@ -5046,10 +5159,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -5063,13 +5176,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5080,10 +5193,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -5097,13 +5210,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5114,84 +5227,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F20" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5202,16 +5315,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5222,16 +5335,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5242,76 +5355,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E26" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5322,81 +5435,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
         <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5407,10 +5520,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5424,10 +5537,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5441,10 +5554,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5458,10 +5571,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5469,36 +5582,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E36" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E37" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5509,10 +5622,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5520,16 +5633,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5543,13 +5656,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5560,13 +5673,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E41" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5577,13 +5690,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5594,13 +5707,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E43" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5611,10 +5724,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5628,13 +5741,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5645,16 +5758,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5665,13 +5778,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5682,10 +5795,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
         <v>132</v>
@@ -5693,142 +5806,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F49" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C50" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F51" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F52" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F55" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5839,16 +5952,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5859,16 +5972,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5879,16 +5992,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -5899,16 +6012,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E59" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F59" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -5919,16 +6032,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -5939,96 +6052,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E62" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E63" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F63" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F65" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6039,16 +6152,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6059,16 +6172,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6079,47 +6192,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6127,16 +6240,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6144,16 +6257,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C72" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6161,39 +6274,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B73" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C73" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E73" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E74" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6204,10 +6317,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6221,64 +6334,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E76" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E77" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E78" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6286,16 +6399,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C80" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6303,73 +6416,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B84" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F84" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6380,16 +6493,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F85" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6400,10 +6513,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6411,22 +6524,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6437,16 +6550,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6457,10 +6570,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
@@ -6471,13 +6584,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6485,19 +6598,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E91" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6508,10 +6621,10 @@
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E92" t="s">
         <v>125</v>
@@ -6525,16 +6638,16 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E93" t="s">
         <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6545,10 +6658,10 @@
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E94" t="s">
         <v>135</v>
@@ -6562,10 +6675,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E95" t="s">
         <v>159</v>
@@ -6579,10 +6692,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E96" t="s">
         <v>159</v>
@@ -6590,16 +6703,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E97" t="s">
         <v>159</v>
@@ -6613,10 +6726,10 @@
         <v>138</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
         <v>159</v>
@@ -6627,16 +6740,16 @@
         <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E99" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6647,13 +6760,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E100" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6664,10 +6777,10 @@
         <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E101" t="s">
         <v>162</v>
@@ -6681,10 +6794,10 @@
         <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
         <v>170</v>
@@ -6698,10 +6811,10 @@
         <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E103" t="s">
         <v>174</v>
@@ -6715,10 +6828,10 @@
         <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E104" t="s">
         <v>174</v>
@@ -6729,13 +6842,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E105" t="s">
         <v>186</v>
@@ -6749,13 +6862,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E106" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6766,13 +6879,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E107" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6783,30 +6896,30 @@
         <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B109" t="s">
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E109" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6817,13 +6930,13 @@
         <v>210</v>
       </c>
       <c r="C110" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E110" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6834,10 +6947,10 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E111" t="s">
         <v>229</v>
@@ -6848,13 +6961,13 @@
         <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E112" t="s">
         <v>229</v>
@@ -6868,10 +6981,10 @@
         <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E113" t="s">
         <v>229</v>
@@ -6885,10 +6998,10 @@
         <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E114" t="s">
         <v>229</v>
@@ -6902,10 +7015,10 @@
         <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E115" t="s">
         <v>245</v>
@@ -6919,10 +7032,10 @@
         <v>262</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E116" t="s">
         <v>261</v>
@@ -6933,13 +7046,13 @@
         <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C117" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E117" t="s">
         <v>261</v>
@@ -6953,10 +7066,10 @@
         <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E118" t="s">
         <v>232</v>
@@ -6970,13 +7083,13 @@
         <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E119" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6987,10 +7100,10 @@
         <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E120" t="s">
         <v>245</v>
@@ -7001,16 +7114,16 @@
         <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C121" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E121" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7018,16 +7131,16 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E122" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7035,16 +7148,16 @@
         <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E123" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7052,16 +7165,16 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7072,13 +7185,13 @@
         <v>191</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7089,13 +7202,13 @@
         <v>267</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E126" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7106,13 +7219,13 @@
         <v>246</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E127" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7120,13 +7233,13 @@
         <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C128" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E128" t="s">
         <v>271</v>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="507">
   <si>
     <t>反馈时间</t>
   </si>
@@ -884,6 +884,12 @@
   </si>
   <si>
     <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
+  </si>
+  <si>
+    <t>2019.8.14</t>
+  </si>
+  <si>
+    <t>cocos pdb还是无法调试(可参考babelua)</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1599,14 +1605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,7 +1613,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1636,22 +1635,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,28 +1661,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1698,22 +1675,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1736,7 +1697,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1751,43 +1757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,7 +1793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,7 +1811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1835,7 +1829,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,73 +1925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,13 +1937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,6 +1948,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1964,51 +1994,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2029,16 +2015,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2050,10 +2056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2062,133 +2068,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2574,10 +2580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4882,7 +4888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>277</v>
       </c>
@@ -4892,8 +4898,11 @@
       <c r="C163" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>277</v>
       </c>
@@ -4903,8 +4912,11 @@
       <c r="C164" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>277</v>
       </c>
@@ -4914,8 +4926,11 @@
       <c r="C165" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>277</v>
       </c>
@@ -4925,8 +4940,11 @@
       <c r="C166" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>277</v>
       </c>
@@ -4935,6 +4953,23 @@
       </c>
       <c r="C167" t="s">
         <v>286</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" t="s">
+        <v>288</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4983,84 +5018,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5068,16 +5103,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5085,19 +5120,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5108,10 +5143,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -5125,10 +5160,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -5142,10 +5177,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>145</v>
@@ -5159,10 +5194,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -5176,13 +5211,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5193,10 +5228,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -5210,13 +5245,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5227,84 +5262,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5315,16 +5350,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5335,16 +5370,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5355,76 +5390,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5435,81 +5470,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" t="s">
         <v>341</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E29" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s">
         <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5520,10 +5555,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5537,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5554,10 +5589,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5571,10 +5606,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5582,36 +5617,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" t="s">
         <v>352</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5622,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5633,16 +5668,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5656,13 +5691,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5673,13 +5708,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5690,13 +5725,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5707,13 +5742,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E43" t="s">
         <v>360</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5724,10 +5759,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5741,13 +5776,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5758,16 +5793,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5778,13 +5813,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5795,10 +5830,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E48" t="s">
         <v>132</v>
@@ -5806,142 +5841,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C49" t="s">
+        <v>372</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C51" t="s">
-        <v>377</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F52" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C53" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F55" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5952,16 +5987,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5972,16 +6007,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5992,16 +6027,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6012,16 +6047,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6032,16 +6067,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6052,96 +6087,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F62" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F65" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6152,16 +6187,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6172,16 +6207,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6192,47 +6227,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6240,16 +6275,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6257,16 +6292,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C72" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6274,39 +6309,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E73" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E74" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F74" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6317,10 +6352,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6334,64 +6369,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E76" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F77" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6399,16 +6434,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6416,73 +6451,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E82" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B84" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C84" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6493,16 +6528,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6513,10 +6548,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6524,22 +6559,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6550,16 +6585,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6570,10 +6605,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
@@ -6584,13 +6619,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6598,19 +6633,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E91" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6621,10 +6656,10 @@
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E92" t="s">
         <v>125</v>
@@ -6638,16 +6673,16 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E93" t="s">
         <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6658,10 +6693,10 @@
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E94" t="s">
         <v>135</v>
@@ -6675,10 +6710,10 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E95" t="s">
         <v>159</v>
@@ -6692,10 +6727,10 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
         <v>159</v>
@@ -6703,16 +6738,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B97" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E97" t="s">
         <v>159</v>
@@ -6726,10 +6761,10 @@
         <v>138</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E98" t="s">
         <v>159</v>
@@ -6740,16 +6775,16 @@
         <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E99" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6760,13 +6795,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E100" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6777,10 +6812,10 @@
         <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
         <v>162</v>
@@ -6794,10 +6829,10 @@
         <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E102" t="s">
         <v>170</v>
@@ -6811,10 +6846,10 @@
         <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E103" t="s">
         <v>174</v>
@@ -6828,10 +6863,10 @@
         <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
         <v>174</v>
@@ -6842,13 +6877,13 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E105" t="s">
         <v>186</v>
@@ -6862,13 +6897,13 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E106" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6879,13 +6914,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E107" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6896,30 +6931,30 @@
         <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E108" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B109" t="s">
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6930,13 +6965,13 @@
         <v>210</v>
       </c>
       <c r="C110" t="s">
+        <v>483</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E110" t="s">
         <v>481</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E110" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6947,10 +6982,10 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E111" t="s">
         <v>229</v>
@@ -6961,13 +6996,13 @@
         <v>214</v>
       </c>
       <c r="B112" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E112" t="s">
         <v>229</v>
@@ -6981,10 +7016,10 @@
         <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s">
         <v>229</v>
@@ -6998,10 +7033,10 @@
         <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E114" t="s">
         <v>229</v>
@@ -7015,10 +7050,10 @@
         <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E115" t="s">
         <v>245</v>
@@ -7032,10 +7067,10 @@
         <v>262</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E116" t="s">
         <v>261</v>
@@ -7046,13 +7081,13 @@
         <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C117" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E117" t="s">
         <v>261</v>
@@ -7066,10 +7101,10 @@
         <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E118" t="s">
         <v>232</v>
@@ -7083,13 +7118,13 @@
         <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E119" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7100,10 +7135,10 @@
         <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
         <v>245</v>
@@ -7114,16 +7149,16 @@
         <v>216</v>
       </c>
       <c r="B121" t="s">
+        <v>497</v>
+      </c>
+      <c r="C121" t="s">
+        <v>498</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E121" t="s">
         <v>495</v>
-      </c>
-      <c r="C121" t="s">
-        <v>496</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E121" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7131,16 +7166,16 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" t="s">
         <v>495</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E122" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7148,16 +7183,16 @@
         <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E123" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7165,16 +7200,16 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" t="s">
         <v>495</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E124" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7185,13 +7220,13 @@
         <v>191</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E125" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7202,13 +7237,13 @@
         <v>267</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E126" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7219,13 +7254,13 @@
         <v>246</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E127" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7233,13 +7268,13 @@
         <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C128" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E128" t="s">
         <v>271</v>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="516">
   <si>
     <t>反馈时间</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>暂时无法重现</t>
-  </si>
-  <si>
-    <t>整理一下dll被占用时的提示的交互。</t>
   </si>
   <si>
     <t>2019.3.16</t>
@@ -892,6 +889,30 @@
     <t>cocos pdb还是无法调试(可参考babelua)</t>
   </si>
   <si>
+    <t>2019.8.16</t>
+  </si>
+  <si>
+    <t>调整project视图右键菜单顺序，Find In Folder放第一位</t>
+  </si>
+  <si>
+    <t>代码菜单右键菜单增加Find In Folder菜单项</t>
+  </si>
+  <si>
+    <t>Find In Foler增加Ctrl+F3的快捷键</t>
+  </si>
+  <si>
+    <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
+  </si>
+  <si>
+    <t>ccgo(821869798)</t>
+  </si>
+  <si>
+    <t>中文的输入候选框，不跟光标，LP在一个屏幕，候选框在另一个屏幕上，能解决吗？输入法是win10自带的，其他的编辑器是正常的</t>
+  </si>
+  <si>
+    <t>监视窗口对象显示元表</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1549,6 +1570,12 @@
   </si>
   <si>
     <t>32位unity 4.7.1下提示attempt to load the C runtime library incorrectly的问题</t>
+  </si>
+  <si>
+    <t>支持配置是否自动拷贝ObjectFormater.cs文件的菜单(Options-Skip Synchronizing Code)</t>
+  </si>
+  <si>
+    <t>整理一下dll被占用时的提示的交互。</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1611,9 +1638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,8 +1653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1642,7 +1669,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,32 +1691,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1704,17 +1744,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1726,21 +1759,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1757,7 +1784,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,7 +1856,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,43 +1910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,7 +1928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,85 +1952,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,21 +1975,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1986,15 +1998,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2031,11 +2034,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2043,8 +2059,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2056,10 +2083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2068,7 +2095,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2077,124 +2104,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2580,10 +2607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="$A89:$XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3845,13 +3872,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="8" t="s">
         <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>9</v>
@@ -3859,13 +3886,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>9</v>
@@ -3873,13 +3900,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
         <v>159</v>
       </c>
-      <c r="B91" t="s">
-        <v>160</v>
-      </c>
       <c r="C91" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>9</v>
@@ -3887,57 +3914,57 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
         <v>159</v>
       </c>
-      <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>162</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -3946,12 +3973,12 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s">
         <v>167</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -3960,10 +3987,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
         <v>168</v>
@@ -3972,43 +3999,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>176</v>
@@ -4019,7 +4046,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
         <v>104</v>
@@ -4033,13 +4060,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" t="s">
-        <v>104</v>
+        <v>178</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>9</v>
@@ -4047,7 +4074,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>129</v>
@@ -4061,13 +4088,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>9</v>
@@ -4075,12 +4102,12 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C105" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" t="s">
         <v>183</v>
       </c>
       <c r="D105" s="7" t="s">
@@ -4089,10 +4116,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
         <v>184</v>
@@ -4103,13 +4130,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>9</v>
@@ -4117,13 +4144,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" t="s">
-        <v>52</v>
-      </c>
-      <c r="C108" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>9</v>
@@ -4131,13 +4158,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>144</v>
+        <v>187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>188</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
@@ -4145,13 +4172,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>9</v>
@@ -4159,13 +4186,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111" t="s">
         <v>190</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>191</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>9</v>
@@ -4173,26 +4200,26 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>190</v>
-      </c>
-      <c r="B112" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" t="s">
         <v>192</v>
       </c>
+      <c r="B112" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="D112" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" t="s">
         <v>194</v>
       </c>
       <c r="D113" s="7" t="s">
@@ -4201,13 +4228,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C114" t="s">
         <v>195</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>9</v>
@@ -4215,13 +4242,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>9</v>
@@ -4229,13 +4256,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>9</v>
@@ -4243,7 +4270,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>11</v>
@@ -4256,14 +4283,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="8" t="s">
+      <c r="A118" t="s">
         <v>204</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>206</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>9</v>
@@ -4271,10 +4298,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" t="s">
         <v>205</v>
-      </c>
-      <c r="B119" t="s">
-        <v>206</v>
       </c>
       <c r="C119" t="s">
         <v>207</v>
@@ -4285,10 +4312,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" t="s">
         <v>205</v>
-      </c>
-      <c r="B120" t="s">
-        <v>206</v>
       </c>
       <c r="C120" t="s">
         <v>208</v>
@@ -4299,13 +4326,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" t="s">
         <v>209</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>9</v>
@@ -4313,13 +4340,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="8" t="s">
         <v>211</v>
+      </c>
+      <c r="C122" t="s">
+        <v>212</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>9</v>
@@ -4327,13 +4354,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
-      </c>
-      <c r="C123" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
@@ -4341,58 +4368,58 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="C124" t="s">
+        <v>217</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" ht="62" customHeight="1" spans="1:6">
       <c r="A125" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" ht="62" customHeight="1" spans="1:6">
+      <c r="F125" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="1:4">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="127" ht="27" spans="1:4">
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
+        <v>227</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
@@ -4400,13 +4427,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4414,13 +4441,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4428,13 +4455,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
-      </c>
-      <c r="C130" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
@@ -4442,12 +4469,12 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" t="s">
         <v>235</v>
       </c>
-      <c r="B131" t="s">
-        <v>236</v>
-      </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" t="s">
         <v>237</v>
       </c>
       <c r="D131" s="7" t="s">
@@ -4456,10 +4483,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" t="s">
         <v>235</v>
-      </c>
-      <c r="B132" t="s">
-        <v>236</v>
       </c>
       <c r="C132" t="s">
         <v>238</v>
@@ -4470,13 +4497,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C133" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>9</v>
@@ -4484,10 +4511,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
         <v>242</v>
@@ -4498,12 +4525,12 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
-      </c>
-      <c r="C135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>243</v>
       </c>
       <c r="D135" s="7" t="s">
@@ -4512,13 +4539,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>9</v>
@@ -4526,12 +4553,12 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
+        <v>244</v>
+      </c>
+      <c r="B137" t="s">
         <v>245</v>
       </c>
-      <c r="B137" t="s">
-        <v>246</v>
-      </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" t="s">
         <v>247</v>
       </c>
       <c r="D137" s="7" t="s">
@@ -4540,10 +4567,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
         <v>245</v>
-      </c>
-      <c r="B138" t="s">
-        <v>246</v>
       </c>
       <c r="C138" t="s">
         <v>248</v>
@@ -4554,10 +4581,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" t="s">
         <v>245</v>
-      </c>
-      <c r="B139" t="s">
-        <v>246</v>
       </c>
       <c r="C139" t="s">
         <v>249</v>
@@ -4568,10 +4595,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
+        <v>244</v>
+      </c>
+      <c r="B140" t="s">
         <v>245</v>
-      </c>
-      <c r="B140" t="s">
-        <v>246</v>
       </c>
       <c r="C140" t="s">
         <v>250</v>
@@ -4582,13 +4609,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B141" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
@@ -4596,10 +4623,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C142" t="s">
         <v>253</v>
@@ -4610,10 +4637,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C143" t="s">
         <v>254</v>
@@ -4624,13 +4651,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" t="s">
         <v>245</v>
       </c>
-      <c r="B144" t="s">
-        <v>252</v>
-      </c>
       <c r="C144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
@@ -4638,10 +4665,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C145" t="s">
         <v>257</v>
@@ -4652,10 +4679,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C146" t="s">
         <v>258</v>
@@ -4666,10 +4693,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C147" t="s">
         <v>259</v>
@@ -4680,13 +4707,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B148" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4694,12 +4721,12 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
-      </c>
-      <c r="C149" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="s">
         <v>263</v>
       </c>
       <c r="D149" s="7" t="s">
@@ -4708,12 +4735,12 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
+        <v>260</v>
+      </c>
+      <c r="B150" t="s">
         <v>261</v>
       </c>
-      <c r="B150" t="s">
-        <v>52</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="C150" s="8" t="s">
         <v>264</v>
       </c>
       <c r="D150" s="7" t="s">
@@ -4722,13 +4749,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4736,10 +4763,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C152" t="s">
         <v>268</v>
@@ -4750,10 +4777,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C153" t="s">
         <v>269</v>
@@ -4764,13 +4791,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>9</v>
@@ -4778,10 +4805,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C155" t="s">
         <v>272</v>
@@ -4792,13 +4819,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -4806,10 +4833,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B157" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C157" t="s">
         <v>275</v>
@@ -4820,13 +4847,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>9</v>
@@ -4834,13 +4861,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" t="s">
+        <v>240</v>
+      </c>
+      <c r="C159" t="s">
         <v>274</v>
-      </c>
-      <c r="B159" t="s">
-        <v>220</v>
-      </c>
-      <c r="C159" t="s">
-        <v>276</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>9</v>
@@ -4848,13 +4875,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>9</v>
@@ -4862,13 +4889,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C161" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>9</v>
@@ -4876,13 +4903,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>9</v>
@@ -4890,13 +4917,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B163" t="s">
-        <v>282</v>
-      </c>
-      <c r="C163" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>9</v>
@@ -4904,13 +4931,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>9</v>
@@ -4918,10 +4945,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
         <v>284</v>
@@ -4932,10 +4959,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166" t="s">
         <v>285</v>
@@ -4946,13 +4973,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C167" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>9</v>
@@ -4960,15 +4987,85 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C168" t="s">
+        <v>289</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
         <v>288</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="B169" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" t="s">
+        <v>290</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170" t="s">
+        <v>291</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" t="s">
+        <v>229</v>
+      </c>
+      <c r="C171" t="s">
+        <v>292</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" t="s">
+        <v>293</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>276</v>
+      </c>
+      <c r="B173" t="s">
+        <v>211</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4981,10 +5078,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5018,84 +5115,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5103,16 +5200,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5120,19 +5217,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5143,10 +5240,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
@@ -5160,10 +5257,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
@@ -5177,10 +5274,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>145</v>
@@ -5194,10 +5291,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>63</v>
@@ -5211,13 +5308,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5228,10 +5325,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -5245,13 +5342,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5262,84 +5359,84 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5350,16 +5447,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5370,16 +5467,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5390,76 +5487,76 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F26" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
@@ -5470,81 +5567,81 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E28" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E30" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5555,10 +5652,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -5572,10 +5669,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
@@ -5589,10 +5686,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
@@ -5606,10 +5703,10 @@
         <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -5617,36 +5714,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E37" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5657,10 +5754,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5668,16 +5765,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
@@ -5691,13 +5788,13 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5708,13 +5805,13 @@
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E41" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5725,13 +5822,13 @@
         <v>31</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E42" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5742,13 +5839,13 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E43" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5759,10 +5856,10 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E44" t="s">
         <v>97</v>
@@ -5776,13 +5873,13 @@
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E45" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5793,16 +5890,16 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5813,13 +5910,13 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E47" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5830,10 +5927,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E48" t="s">
         <v>132</v>
@@ -5841,142 +5938,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C50" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F52" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E55" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F55" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5987,16 +6084,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6007,16 +6104,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6027,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6047,16 +6144,16 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F59" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6067,16 +6164,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6087,96 +6184,96 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E61" t="s">
         <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F62" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E63" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F63" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6187,16 +6284,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E66" t="s">
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6207,16 +6304,16 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6227,47 +6324,47 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -6275,16 +6372,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -6292,16 +6389,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -6309,39 +6406,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C73" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E73" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E74" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="F74" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6352,10 +6449,10 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E75" t="s">
         <v>65</v>
@@ -6369,64 +6466,64 @@
         <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B77" t="s">
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F77" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -6434,16 +6531,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C80" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
@@ -6451,73 +6548,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B84" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C84" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F84" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6528,16 +6625,16 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F85" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6548,10 +6645,10 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E86" t="s">
         <v>76</v>
@@ -6559,22 +6656,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6585,16 +6682,16 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E88" t="s">
         <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6605,10 +6702,10 @@
         <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E89" t="s">
         <v>145</v>
@@ -6619,13 +6716,13 @@
         <v>45</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s">
         <v>49</v>
@@ -6633,19 +6730,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E91" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6656,10 +6753,10 @@
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
         <v>125</v>
@@ -6673,16 +6770,16 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E93" t="s">
         <v>125</v>
       </c>
       <c r="F93" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6693,10 +6790,10 @@
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s">
         <v>135</v>
@@ -6710,13 +6807,13 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:5">
@@ -6727,30 +6824,30 @@
         <v>109</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B97" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:5">
@@ -6761,30 +6858,30 @@
         <v>138</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:5">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E99" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6795,81 +6892,81 @@
         <v>104</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:5">
       <c r="A102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" t="s">
         <v>170</v>
       </c>
-      <c r="B102" t="s">
-        <v>171</v>
-      </c>
       <c r="C102" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:5">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
         <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:5">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:5">
@@ -6877,16 +6974,16 @@
         <v>49</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:5">
@@ -6897,81 +6994,81 @@
         <v>83</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E106" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
         <v>52</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E107" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E108" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B109" t="s">
         <v>129</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E109" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E110" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6982,183 +7079,183 @@
         <v>43</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E111" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E112" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
       <c r="A113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" t="s">
         <v>205</v>
       </c>
-      <c r="B113" t="s">
-        <v>206</v>
-      </c>
       <c r="C113" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
         <v>216</v>
       </c>
-      <c r="B114" t="s">
-        <v>217</v>
-      </c>
       <c r="C114" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" t="s">
         <v>245</v>
       </c>
-      <c r="B115" t="s">
-        <v>246</v>
-      </c>
       <c r="C115" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" t="s">
         <v>261</v>
       </c>
-      <c r="B116" t="s">
-        <v>262</v>
-      </c>
       <c r="C116" s="6" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C117" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C118" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E119" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
         <v>245</v>
       </c>
-      <c r="B120" t="s">
-        <v>246</v>
-      </c>
       <c r="C120" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E120" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C121" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E121" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7166,33 +7263,33 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E122" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E123" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7200,84 +7297,118 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" t="s">
         <v>502</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E124" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" t="s">
         <v>190</v>
       </c>
-      <c r="B125" t="s">
-        <v>191</v>
-      </c>
       <c r="C125" s="8" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E125" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E126" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E127" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B128" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C128" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E128" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" t="s">
+        <v>514</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E129" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E130" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17370" windowHeight="8820"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="520">
   <si>
     <t>反馈时间</t>
   </si>
@@ -55,9 +55,6 @@
     <t>ares</t>
   </si>
   <si>
-    <t>希望可以自定义快捷键。</t>
-  </si>
-  <si>
     <t>工程界面没有文件夹重命名功能。</t>
   </si>
   <si>
@@ -76,7 +73,7 @@
     <t>分屏编辑。</t>
   </si>
   <si>
-    <t>输入到括号的时候没有继续补全。</t>
+    <t>函数参数输入到括号的时候没有继续补全。</t>
   </si>
   <si>
     <t>2019.1.9</t>
@@ -212,12 +209,6 @@
   </si>
   <si>
     <t>Jay(68862232)</t>
-  </si>
-  <si>
-    <t>2019.1.29</t>
-  </si>
-  <si>
-    <t>自定义快捷键（预定义几套配置+自定义）。</t>
   </si>
   <si>
     <t>anders</t>
@@ -278,9 +269,6 @@
     <t>希望可以支持Cocos2d-x 3.6。</t>
   </si>
   <si>
-    <t>查找时没有查找结果列表。</t>
-  </si>
-  <si>
     <t>一些智能提示操作有问题。</t>
   </si>
   <si>
@@ -510,12 +498,6 @@
     <t>超过一行的注释之后,光标会自动跑到行尾,建议改一下</t>
   </si>
   <si>
-    <t>输入else elseif时，建议能自动缩进一下。</t>
-  </si>
-  <si>
-    <t>已知会ifelseif的快捷写法。</t>
-  </si>
-  <si>
     <t>任务管理器里面的图标是不是应该设置一下。</t>
   </si>
   <si>
@@ -568,9 +550,6 @@
   </si>
   <si>
     <t>没有wordwrap看东西太不方便了。</t>
-  </si>
-  <si>
-    <t>自定义快捷键。</t>
   </si>
   <si>
     <t>按住Alt可以选多行同列的功能。</t>
@@ -700,217 +679,196 @@
     <t>require 方式 self 是空,DoString  TextAsset self 不是空,都scriptEnv.Set("self", this);</t>
   </si>
   <si>
-    <t>2019.7.16</t>
+    <t>2019.7.21</t>
+  </si>
+  <si>
+    <t>呵呵哒(475773235)</t>
+  </si>
+  <si>
+    <t>有没有把lua所有文件，都格式化的方式</t>
+  </si>
+  <si>
+    <t>2019.8.3</t>
+  </si>
+  <si>
+    <t>古月良云(604746493)</t>
+  </si>
+  <si>
+    <t>代码补全时function Class:Func() end这种，希望能自动填上Class</t>
+  </si>
+  <si>
+    <t>2019.8.5</t>
+  </si>
+  <si>
+    <t>大魔王有木桑(1227380830)</t>
+  </si>
+  <si>
+    <t>罗技鼠标慢速滚动时有问题</t>
+  </si>
+  <si>
+    <t>输入法中文输入窗口的位置有问题</t>
+  </si>
+  <si>
+    <t>2019.8.6</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>locals里显示Dummy，不正常</t>
+  </si>
+  <si>
+    <t>xlua的工程，dll的名字不一定是xlua</t>
+  </si>
+  <si>
+    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
+  </si>
+  <si>
+    <t>注解里的类型名没有自动完成</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
+  </si>
+  <si>
+    <t>johnd</t>
+  </si>
+  <si>
+    <t>不能查找引用</t>
+  </si>
+  <si>
+    <t>依赖注释来精确提示</t>
+  </si>
+  <si>
+    <t>不能精确跳转Table定义的地方</t>
+  </si>
+  <si>
+    <t>2019.8.7</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
+  </si>
+  <si>
+    <t>撤销到修改前的状态时，还是标记为已修改</t>
+  </si>
+  <si>
+    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
+  </si>
+  <si>
+    <t>函数提示里，出现了两个self</t>
+  </si>
+  <si>
+    <t>2019.8.9</t>
+  </si>
+  <si>
+    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
+  </si>
+  <si>
+    <t>Я7(394074705)</t>
+  </si>
+  <si>
+    <t>Ctrl+鼠标点击跳转的功能</t>
+  </si>
+  <si>
+    <t>2019.8.8</t>
+  </si>
+  <si>
+    <t>起跑线To(2268334885)</t>
+  </si>
+  <si>
+    <t>直接在Project拖动文件进行文件移动操作</t>
+  </si>
+  <si>
+    <t>希望监视能跟堆栈结合起来</t>
+  </si>
+  <si>
+    <t>output窗口希望可以搜索</t>
+  </si>
+  <si>
+    <t>2019.8.12</t>
   </si>
   <si>
     <t>ZensYue(2645373456)</t>
   </si>
   <si>
-    <t>有同事想自定义快捷键，之前as那套</t>
-  </si>
-  <si>
-    <t>2019.7.21</t>
-  </si>
-  <si>
-    <t>呵呵哒(475773235)</t>
-  </si>
-  <si>
-    <t>有没有把lua所有文件，都格式化的方式</t>
-  </si>
-  <si>
-    <t>2019.8.1</t>
-  </si>
-  <si>
-    <t>小二郎(534876665)</t>
-  </si>
-  <si>
-    <t>有没有类似idea那个直接创建模板代码的东西啊</t>
-  </si>
-  <si>
-    <t>2019.8.3</t>
-  </si>
-  <si>
-    <t>古月良云(604746493)</t>
-  </si>
-  <si>
-    <t>自建模版，创建文件的时候更快捷一些</t>
-  </si>
-  <si>
-    <t>代码补全时function Class:Func() end这种，希望能自动填上Class</t>
+    <t>希望在Output界面添加搜索功能</t>
+  </si>
+  <si>
+    <t>2019.8.13</t>
+  </si>
+  <si>
+    <t>希望支持UnLua</t>
+  </si>
+  <si>
+    <t>希望支持正则表达式</t>
+  </si>
+  <si>
+    <t>2019.8.15</t>
+  </si>
+  <si>
+    <t>...(961451518)</t>
+  </si>
+  <si>
+    <t>希望支持插件化</t>
+  </si>
+  <si>
+    <t>HKW(1397796710)</t>
+  </si>
+  <si>
+    <t>Unity里的封装用LP打开Lua文件的代码</t>
+  </si>
+  <si>
+    <t>joaryyu</t>
+  </si>
+  <si>
+    <t>插件化</t>
+  </si>
+  <si>
+    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
+  </si>
+  <si>
+    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
+  </si>
+  <si>
+    <t>2019.8.14</t>
+  </si>
+  <si>
+    <t>cocos pdb还是无法调试(可参考babelua)</t>
+  </si>
+  <si>
+    <t>2019.8.16</t>
+  </si>
+  <si>
+    <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
+  </si>
+  <si>
+    <t>ccgo(821869798)</t>
+  </si>
+  <si>
+    <t>中文的输入候选框，不跟光标，LP在一个屏幕，候选框在另一个屏幕上，能解决吗？输入法是win10自带的，其他的编辑器是正常的</t>
+  </si>
+  <si>
+    <t>监视窗口对象显示元表</t>
+  </si>
+  <si>
+    <t>2019.8.18</t>
+  </si>
+  <si>
+    <t>双击打开文件无法用Alt+Right导航</t>
+  </si>
+  <si>
+    <t>显示竖线</t>
+  </si>
+  <si>
+    <t>输入else elseif时，建议能自动缩进一下。</t>
   </si>
   <si>
     <t>从外部拖动文件到文件夹时复制文件过去</t>
   </si>
   <si>
-    <t>2019.8.5</t>
-  </si>
-  <si>
-    <t>大魔王有木桑(1227380830)</t>
-  </si>
-  <si>
-    <t>罗技鼠标慢速滚动时有问题</t>
-  </si>
-  <si>
-    <t>输入法中文输入窗口的位置有问题</t>
-  </si>
-  <si>
-    <t>自定义背景图片</t>
-  </si>
-  <si>
-    <t>2019.8.6</t>
-  </si>
-  <si>
-    <t>hop</t>
-  </si>
-  <si>
-    <t>locals里显示Dummy，不正常</t>
-  </si>
-  <si>
-    <t>xlua的工程，dll的名字不一定是xlua</t>
-  </si>
-  <si>
-    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
-  </si>
-  <si>
-    <t>注解里的类型名没有自动完成</t>
-  </si>
-  <si>
-    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
-  </si>
-  <si>
-    <t>johnd</t>
-  </si>
-  <si>
-    <t>不能查找引用</t>
-  </si>
-  <si>
-    <t>依赖注释来精确提示</t>
-  </si>
-  <si>
-    <t>不能精确跳转Table定义的地方</t>
-  </si>
-  <si>
-    <t>2019.8.7</t>
-  </si>
-  <si>
-    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
-  </si>
-  <si>
-    <t>撤销到修改前的状态时，还是标记为已修改</t>
-  </si>
-  <si>
-    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
-  </si>
-  <si>
-    <t>函数提示里，出现了两个self</t>
-  </si>
-  <si>
-    <t>2019.8.9</t>
-  </si>
-  <si>
-    <t>Я7(394074705)</t>
-  </si>
-  <si>
     <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
   </si>
   <si>
-    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
-  </si>
-  <si>
-    <t>Ctrl+鼠标点击跳转的功能</t>
-  </si>
-  <si>
-    <t>2019.8.8</t>
-  </si>
-  <si>
-    <t>起跑线To(2268334885)</t>
-  </si>
-  <si>
-    <t>直接在Project拖动文件进行文件移动操作</t>
-  </si>
-  <si>
-    <t>希望监视能跟堆栈结合起来</t>
-  </si>
-  <si>
-    <t>output窗口希望可以搜索</t>
-  </si>
-  <si>
-    <t>2019.8.12</t>
-  </si>
-  <si>
-    <t>直接在拖文件到Project进行文件复制操作</t>
-  </si>
-  <si>
-    <t>希望在Output界面添加搜索功能</t>
-  </si>
-  <si>
-    <t>2019.8.13</t>
-  </si>
-  <si>
-    <t>希望支持UnLua</t>
-  </si>
-  <si>
-    <t>希望支持正则表达式</t>
-  </si>
-  <si>
-    <t>2019.8.15</t>
-  </si>
-  <si>
-    <t>...(961451518)</t>
-  </si>
-  <si>
-    <t>希望支持插件化</t>
-  </si>
-  <si>
-    <t>HKW(1397796710)</t>
-  </si>
-  <si>
-    <t>Unity里的封装用LP打开Lua文件的代码</t>
-  </si>
-  <si>
-    <t>joaryyu</t>
-  </si>
-  <si>
-    <t>插件化</t>
-  </si>
-  <si>
-    <t>快捷键可以自定义</t>
-  </si>
-  <si>
-    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
-  </si>
-  <si>
-    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
-  </si>
-  <si>
-    <t>2019.8.14</t>
-  </si>
-  <si>
-    <t>cocos pdb还是无法调试(可参考babelua)</t>
-  </si>
-  <si>
-    <t>2019.8.16</t>
-  </si>
-  <si>
-    <t>调整project视图右键菜单顺序，Find In Folder放第一位</t>
-  </si>
-  <si>
-    <t>代码菜单右键菜单增加Find In Folder菜单项</t>
-  </si>
-  <si>
-    <t>Find In Foler增加Ctrl+F3的快捷键</t>
-  </si>
-  <si>
-    <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
-  </si>
-  <si>
-    <t>ccgo(821869798)</t>
-  </si>
-  <si>
-    <t>中文的输入候选框，不跟光标，LP在一个屏幕，候选框在另一个屏幕上，能解决吗？输入法是win10自带的，其他的编辑器是正常的</t>
-  </si>
-  <si>
-    <t>监视窗口对象显示元表</t>
+    <t>直接拖文件到Project进行文件复制操作</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1066,6 +1024,9 @@
     <t>已改为生成XLua/SLua和用户的全部api，不做筛选。</t>
   </si>
   <si>
+    <t>2019.1.29</t>
+  </si>
+  <si>
     <t>对话框最好可以移动。</t>
   </si>
   <si>
@@ -1530,6 +1491,9 @@
     <t>ToLua执行print()会报错</t>
   </si>
   <si>
+    <t>2019.8.1</t>
+  </si>
+  <si>
     <t>单行过长时会导致崩溃</t>
   </si>
   <si>
@@ -1576,6 +1540,54 @@
   </si>
   <si>
     <t>整理一下dll被占用时的提示的交互。</t>
+  </si>
+  <si>
+    <t>希望可以自定义快捷键。</t>
+  </si>
+  <si>
+    <t>2019.8.17</t>
+  </si>
+  <si>
+    <t>自定义快捷键（预定义几套配置+自定义）。</t>
+  </si>
+  <si>
+    <t>查找时没有查找结果列表。</t>
+  </si>
+  <si>
+    <t>自定义快捷键。</t>
+  </si>
+  <si>
+    <t>2019.7.16</t>
+  </si>
+  <si>
+    <t>有同事想自定义快捷键，之前as那套</t>
+  </si>
+  <si>
+    <t>小二郎(534876665)</t>
+  </si>
+  <si>
+    <t>有没有类似idea那个直接创建模板代码的东西啊</t>
+  </si>
+  <si>
+    <t>自建模版，创建文件的时候更快捷一些</t>
+  </si>
+  <si>
+    <t>自定义背景图片</t>
+  </si>
+  <si>
+    <t>快捷键可以自定义</t>
+  </si>
+  <si>
+    <t>调整project视图右键菜单顺序，Find In Folder放第一位</t>
+  </si>
+  <si>
+    <t>代码菜单右键菜单增加Find In Folder菜单项</t>
+  </si>
+  <si>
+    <t>Find In Foler增加Ctrl+F3的快捷键</t>
+  </si>
+  <si>
+    <t>提供一个菜单打开配置文件夹</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1632,12 +1644,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1653,9 +1673,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1669,7 +1702,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,83 +1710,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,7 +1726,62 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1784,25 +1796,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,13 +1844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,13 +1868,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,49 +1916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,43 +1940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,7 +1976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,6 +1992,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1987,32 +2010,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2032,11 +2034,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,13 +2073,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2083,10 +2095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2095,137 +2107,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2255,6 +2267,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2607,17 +2622,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A89" sqref="$A89:$XFD89"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="3" max="3" width="61.625" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
@@ -2690,10 +2705,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
@@ -2704,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
@@ -2718,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -2732,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
@@ -2743,27 +2758,27 @@
     </row>
     <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
@@ -2771,13 +2786,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>9</v>
@@ -2785,13 +2800,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
@@ -2799,13 +2814,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>9</v>
@@ -2813,13 +2828,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
@@ -2827,7 +2842,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -2841,13 +2856,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>9</v>
@@ -2855,13 +2870,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>9</v>
@@ -2869,7 +2884,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2883,7 +2898,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2897,13 +2912,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>9</v>
@@ -2911,13 +2926,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>9</v>
@@ -2925,13 +2940,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>9</v>
@@ -2939,10 +2954,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>47</v>
@@ -2953,13 +2968,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>9</v>
@@ -2967,13 +2982,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="7" t="s">
         <v>51</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>9</v>
@@ -2981,12 +2996,12 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2995,13 +3010,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>9</v>
@@ -3009,10 +3024,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>57</v>
@@ -3023,10 +3038,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>58</v>
@@ -3037,13 +3052,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>9</v>
@@ -3051,12 +3066,12 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -3065,13 +3080,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>9</v>
@@ -3079,13 +3094,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>22</v>
+      <c r="C33" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>9</v>
@@ -3093,10 +3108,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>66</v>
@@ -3107,24 +3122,24 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>69</v>
@@ -3135,27 +3150,27 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
+    <row r="38" ht="27" spans="1:4">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>9</v>
@@ -3163,27 +3178,27 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" ht="27" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>9</v>
@@ -3191,7 +3206,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
@@ -3205,10 +3220,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>82</v>
@@ -3219,13 +3234,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>9</v>
@@ -3233,13 +3248,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>9</v>
@@ -3247,13 +3262,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>9</v>
@@ -3261,12 +3276,12 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -3275,13 +3290,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="8" t="s">
         <v>88</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>9</v>
@@ -3289,13 +3304,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>9</v>
@@ -3303,41 +3318,44 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="C49" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>9</v>
@@ -3345,41 +3363,38 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>102</v>
@@ -3390,13 +3405,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>9</v>
@@ -3404,13 +3419,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>9</v>
@@ -3418,10 +3433,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>106</v>
@@ -3430,12 +3445,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>107</v>
@@ -3443,16 +3458,19 @@
       <c r="D58" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>9</v>
@@ -3460,10 +3478,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>110</v>
@@ -3472,32 +3490,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>9</v>
@@ -3505,13 +3520,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>9</v>
@@ -3519,13 +3534,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>9</v>
@@ -3533,13 +3548,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>9</v>
@@ -3547,41 +3562,41 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="27" spans="1:4">
       <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:4">
+      <c r="A68" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>9</v>
@@ -3589,41 +3604,41 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>9</v>
@@ -3631,13 +3646,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>125</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>9</v>
@@ -3645,13 +3660,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>9</v>
@@ -3659,13 +3674,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>9</v>
@@ -3673,12 +3688,12 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3687,13 +3702,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>9</v>
@@ -3701,13 +3716,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>138</v>
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>9</v>
@@ -3715,13 +3730,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>67</v>
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>9</v>
@@ -3729,10 +3744,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>67</v>
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>142</v>
@@ -3743,10 +3758,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>143</v>
@@ -3755,28 +3770,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" ht="27" spans="1:4">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" ht="27" spans="1:4">
       <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
         <v>145</v>
       </c>
-      <c r="B82" t="s">
-        <v>31</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -3785,55 +3800,58 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="C83" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="D83" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>9</v>
@@ -3841,44 +3859,41 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" s="7" t="s">
         <v>157</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>9</v>
@@ -3886,13 +3901,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>9</v>
@@ -3900,13 +3915,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>9</v>
@@ -3914,58 +3929,58 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" s="10" t="s">
+      <c r="D92" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
         <v>162</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
         <v>163</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="B94" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" t="s">
         <v>165</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>9</v>
@@ -3973,13 +3988,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>9</v>
@@ -3987,44 +4002,41 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>169</v>
-      </c>
-      <c r="B98" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" t="s">
         <v>174</v>
-      </c>
-      <c r="C99" t="s">
-        <v>175</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>9</v>
@@ -4032,12 +4044,12 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>176</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -4046,10 +4058,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>177</v>
@@ -4062,8 +4074,8 @@
       <c r="A102" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>129</v>
+      <c r="B102" t="s">
+        <v>51</v>
       </c>
       <c r="C102" t="s">
         <v>179</v>
@@ -4074,13 +4086,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C103" t="s">
-        <v>180</v>
+        <v>125</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>9</v>
@@ -4088,13 +4100,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="s">
         <v>181</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>9</v>
@@ -4102,13 +4114,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" t="s">
         <v>183</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>9</v>
@@ -4116,10 +4128,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
         <v>184</v>
@@ -4132,10 +4144,10 @@
       <c r="A107" t="s">
         <v>185</v>
       </c>
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D107" s="7" t="s">
@@ -4143,140 +4155,140 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>181</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>144</v>
+      <c r="A108" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>187</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="A109" s="7" t="s">
         <v>188</v>
       </c>
+      <c r="B109" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" t="s">
-        <v>190</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>157</v>
+      <c r="A110" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>189</v>
-      </c>
-      <c r="B111" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" t="s">
-        <v>191</v>
+      <c r="A111" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>192</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>129</v>
+      <c r="A112" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>129</v>
+      <c r="A113" t="s">
+        <v>197</v>
+      </c>
+      <c r="B113" t="s">
+        <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C114" s="8" t="s">
+      <c r="A114" t="s">
         <v>197</v>
       </c>
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" t="s">
+        <v>200</v>
+      </c>
       <c r="D114" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="7" t="s">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" t="s">
         <v>198</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>200</v>
+      <c r="C115" t="s">
+        <v>201</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>11</v>
+      <c r="A116" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" t="s">
+        <v>202</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>203</v>
+      <c r="A117" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" t="s">
+        <v>205</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>9</v>
@@ -4284,13 +4296,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>9</v>
@@ -4298,41 +4310,44 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" ht="62" customHeight="1" spans="1:6">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" ht="27" spans="1:4">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>9</v>
@@ -4340,13 +4355,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C122" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>9</v>
@@ -4354,58 +4369,41 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>214</v>
+        <v>222</v>
+      </c>
+      <c r="C123" t="s">
+        <v>223</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" t="s">
-        <v>217</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" ht="62" customHeight="1" spans="1:6">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" ht="27" spans="1:4">
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" t="s">
         <v>222</v>
       </c>
-      <c r="B126" t="s">
-        <v>223</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>224</v>
+      <c r="C126" t="s">
+        <v>227</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
@@ -4413,13 +4411,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
-      </c>
-      <c r="C127" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
@@ -4433,7 +4431,7 @@
         <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4441,13 +4439,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" t="s">
         <v>232</v>
-      </c>
-      <c r="C129" t="s">
-        <v>233</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4455,13 +4453,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
+      </c>
+      <c r="C130" t="s">
+        <v>233</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
@@ -4469,13 +4467,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" t="s">
         <v>234</v>
-      </c>
-      <c r="B131" t="s">
-        <v>235</v>
-      </c>
-      <c r="C131" t="s">
-        <v>237</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
@@ -4483,13 +4481,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
         <v>235</v>
       </c>
       <c r="C132" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
@@ -4497,13 +4495,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>9</v>
@@ -4511,13 +4509,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B134" t="s">
         <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>9</v>
@@ -4528,10 +4526,10 @@
         <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
+      </c>
+      <c r="C135" t="s">
+        <v>240</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>9</v>
@@ -4539,13 +4537,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
+      </c>
+      <c r="C136" t="s">
+        <v>241</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>9</v>
@@ -4553,13 +4551,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C137" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>9</v>
@@ -4567,13 +4565,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C138" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>9</v>
@@ -4584,10 +4582,10 @@
         <v>244</v>
       </c>
       <c r="B139" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" t="s">
         <v>245</v>
-      </c>
-      <c r="C139" t="s">
-        <v>249</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>9</v>
@@ -4598,10 +4596,10 @@
         <v>244</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
-      </c>
-      <c r="C140" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>9</v>
@@ -4609,13 +4607,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
@@ -4626,10 +4624,10 @@
         <v>244</v>
       </c>
       <c r="B142" t="s">
+        <v>229</v>
+      </c>
+      <c r="C142" t="s">
         <v>251</v>
-      </c>
-      <c r="C142" t="s">
-        <v>253</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
@@ -4640,10 +4638,10 @@
         <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" t="s">
-        <v>254</v>
+        <v>229</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
@@ -4651,13 +4649,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
         <v>255</v>
-      </c>
-      <c r="B144" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" t="s">
-        <v>256</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
@@ -4665,10 +4663,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
         <v>257</v>
@@ -4679,10 +4677,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="C146" t="s">
         <v>258</v>
@@ -4693,13 +4691,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
@@ -4707,13 +4705,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>262</v>
+        <v>225</v>
+      </c>
+      <c r="C148" t="s">
+        <v>257</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4721,13 +4719,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>259</v>
+      </c>
+      <c r="B149" t="s">
         <v>260</v>
       </c>
-      <c r="B149" t="s">
-        <v>52</v>
-      </c>
       <c r="C149" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>9</v>
@@ -4735,13 +4733,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>9</v>
@@ -4749,13 +4747,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
+        <v>259</v>
+      </c>
+      <c r="B151" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" t="s">
         <v>265</v>
-      </c>
-      <c r="B151" t="s">
-        <v>266</v>
-      </c>
-      <c r="C151" t="s">
-        <v>267</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4763,13 +4761,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>9</v>
@@ -4777,13 +4775,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>9</v>
@@ -4791,13 +4789,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>9</v>
@@ -4808,10 +4806,10 @@
         <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>9</v>
@@ -4819,13 +4817,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="B156" t="s">
-        <v>211</v>
-      </c>
-      <c r="C156" t="s">
-        <v>274</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -4833,13 +4831,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
-      </c>
-      <c r="C157" t="s">
-        <v>275</v>
+        <v>204</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>9</v>
@@ -4847,13 +4845,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="C158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>9</v>
@@ -4861,13 +4859,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C159" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>9</v>
@@ -4875,12 +4873,12 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
-      </c>
-      <c r="C160" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>278</v>
       </c>
       <c r="D160" s="7" t="s">
@@ -4889,13 +4887,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
+        <v>222</v>
+      </c>
+      <c r="C161" t="s">
         <v>279</v>
-      </c>
-      <c r="C161" t="s">
-        <v>280</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>9</v>
@@ -4903,13 +4901,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="B162" t="s">
-        <v>281</v>
-      </c>
-      <c r="C162" t="s">
-        <v>282</v>
+        <v>246</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>9</v>
@@ -4917,155 +4915,15 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
+        <v>222</v>
+      </c>
+      <c r="C163" t="s">
         <v>281</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="D163" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>276</v>
-      </c>
-      <c r="B164" t="s">
-        <v>245</v>
-      </c>
-      <c r="C164" t="s">
-        <v>283</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>276</v>
-      </c>
-      <c r="B165" t="s">
-        <v>245</v>
-      </c>
-      <c r="C165" t="s">
-        <v>284</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>276</v>
-      </c>
-      <c r="B166" t="s">
-        <v>245</v>
-      </c>
-      <c r="C166" t="s">
-        <v>285</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>286</v>
-      </c>
-      <c r="B167" t="s">
-        <v>216</v>
-      </c>
-      <c r="C167" t="s">
-        <v>287</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>288</v>
-      </c>
-      <c r="B168" t="s">
-        <v>229</v>
-      </c>
-      <c r="C168" t="s">
-        <v>289</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>288</v>
-      </c>
-      <c r="B169" t="s">
-        <v>229</v>
-      </c>
-      <c r="C169" t="s">
-        <v>290</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>288</v>
-      </c>
-      <c r="B170" t="s">
-        <v>229</v>
-      </c>
-      <c r="C170" t="s">
-        <v>291</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>288</v>
-      </c>
-      <c r="B171" t="s">
-        <v>229</v>
-      </c>
-      <c r="C171" t="s">
-        <v>292</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>288</v>
-      </c>
-      <c r="B172" t="s">
-        <v>293</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>276</v>
-      </c>
-      <c r="B173" t="s">
-        <v>211</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D173" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5078,10 +4936,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5115,84 +4973,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5200,16 +5058,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5217,19 +5075,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5240,13 +5098,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:5">
@@ -5257,13 +5115,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
@@ -5271,16 +5129,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
@@ -5288,16 +5146,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:5">
@@ -5305,16 +5163,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5322,16 +5180,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
@@ -5339,16 +5197,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5356,87 +5214,87 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5447,16 +5305,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5467,16 +5325,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5487,593 +5345,593 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F26" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E29" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E30" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E31" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:5">
       <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:5">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E37" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:5">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:5">
       <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E45" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
       <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
       <c r="C46" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
       <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="C48" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" t="s">
         <v>377</v>
       </c>
-      <c r="B53" t="s">
-        <v>382</v>
-      </c>
-      <c r="C53" t="s">
-        <v>390</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F53" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6084,16 +5942,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6104,16 +5962,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6124,16 +5982,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6141,19 +5999,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E59" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F59" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6161,19 +6019,19 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6181,1234 +6039,1472 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E63" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F63" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E65" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
       <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
         <v>23</v>
       </c>
-      <c r="B66" t="s">
-        <v>24</v>
-      </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E69" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C72" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F74" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
       <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
         <v>63</v>
       </c>
-      <c r="B75" t="s">
-        <v>64</v>
-      </c>
       <c r="C75" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
       <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
         <v>63</v>
       </c>
-      <c r="B76" t="s">
-        <v>64</v>
-      </c>
       <c r="C76" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E76" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F77" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E78" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C80" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E83" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B84" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C84" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F84" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E85" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
       <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>441</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" t="s">
         <v>73</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>454</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:5">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E91" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
       <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="C92" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E92" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:6">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:5">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:5">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:5">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:5">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E99" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E100" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:5">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:5">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E103" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:5">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E104" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:5">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:5">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E107" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E108" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E110" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
       <c r="A111" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
         <v>42</v>
       </c>
-      <c r="B111" t="s">
-        <v>43</v>
-      </c>
       <c r="C111" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E111" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E112" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E113" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E114" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B117" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C117" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E117" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>487</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E119" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E120" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B121" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C121" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E121" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E122" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E123" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E124" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E125" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E126" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E127" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C128" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E128" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C129" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E129" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E131" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E132" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E133" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" t="s">
+        <v>508</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>509</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="s">
+        <v>510</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E135" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>487</v>
+      </c>
+      <c r="B136" t="s">
+        <v>511</v>
+      </c>
+      <c r="C136" t="s">
+        <v>512</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E136" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E137" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" t="s">
+        <v>222</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" t="s">
         <v>515</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E130" t="s">
-        <v>288</v>
+      <c r="D139" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E139" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" t="s">
+        <v>516</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" t="s">
+        <v>219</v>
+      </c>
+      <c r="C142" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E142" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" t="s">
+        <v>518</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E143" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>275</v>
+      </c>
+      <c r="B144" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" t="s">
+        <v>519</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E144" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="18090" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="529">
   <si>
     <t>反馈时间</t>
   </si>
@@ -869,6 +869,33 @@
   </si>
   <si>
     <t>直接拖文件到Project进行文件复制操作</t>
+  </si>
+  <si>
+    <t>2019.8.19</t>
+  </si>
+  <si>
+    <t>字体间距有点大，希望可以配置字体</t>
+  </si>
+  <si>
+    <t>快捷键有一些是两个组合键，如Ctrl+K+C这种的支持</t>
+  </si>
+  <si>
+    <t>对于--[[]]这种类型的注释操作的支持</t>
+  </si>
+  <si>
+    <t>Apis目录导致LuaPerfect切换卡顿</t>
+  </si>
+  <si>
+    <t>Profile支持内存快照</t>
+  </si>
+  <si>
+    <t>输入end时对从if到end的代码行进行格式化</t>
+  </si>
+  <si>
+    <t>Alt+Up/Down交换行</t>
+  </si>
+  <si>
+    <t>输入法怎么不跟在旁边</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1595,12 +1622,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,41 +1670,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1688,45 +1684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1756,6 +1714,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1772,8 +1775,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1782,6 +1801,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,43 +1829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,67 +1859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,7 +1877,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,13 +1991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,31 +2003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,29 +2025,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2030,6 +2043,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,9 +2097,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2095,10 +2128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2107,137 +2140,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,6 +2306,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2622,10 +2658,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4924,6 +4960,132 @@
         <v>281</v>
       </c>
       <c r="D163" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>282</v>
+      </c>
+      <c r="B164" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" t="s">
+        <v>283</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>282</v>
+      </c>
+      <c r="B165" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>282</v>
+      </c>
+      <c r="B166" t="s">
+        <v>246</v>
+      </c>
+      <c r="C166" t="s">
+        <v>284</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>282</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C167" t="s">
+        <v>285</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" t="s">
+        <v>246</v>
+      </c>
+      <c r="C168" t="s">
+        <v>286</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>282</v>
+      </c>
+      <c r="B169" t="s">
+        <v>246</v>
+      </c>
+      <c r="C169" t="s">
+        <v>287</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>282</v>
+      </c>
+      <c r="B170" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" t="s">
+        <v>288</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>282</v>
+      </c>
+      <c r="B171" t="s">
+        <v>246</v>
+      </c>
+      <c r="C171" t="s">
+        <v>289</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" ht="17.25" spans="1:4">
+      <c r="A172" t="s">
+        <v>282</v>
+      </c>
+      <c r="B172" t="s">
+        <v>246</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4973,84 +5135,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5058,16 +5220,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5075,19 +5237,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5098,10 +5260,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>73</v>
@@ -5115,10 +5277,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>73</v>
@@ -5132,10 +5294,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>141</v>
@@ -5149,10 +5311,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>62</v>
@@ -5166,13 +5328,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5183,10 +5345,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>62</v>
@@ -5200,13 +5362,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5217,84 +5379,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F20" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5305,16 +5467,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5325,16 +5487,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5345,161 +5507,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F24" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E26" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B30" t="s">
         <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E30" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E31" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5510,10 +5672,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5527,10 +5689,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5544,10 +5706,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5561,10 +5723,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5572,36 +5734,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E37" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5612,10 +5774,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5623,16 +5785,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -5646,13 +5808,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5663,13 +5825,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5680,13 +5842,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E42" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5697,13 +5859,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E43" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5714,10 +5876,10 @@
         <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
@@ -5731,13 +5893,13 @@
         <v>97</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E45" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5748,16 +5910,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5768,13 +5930,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E47" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5785,10 +5947,10 @@
         <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E48" t="s">
         <v>128</v>
@@ -5796,142 +5958,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C49" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F53" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C54" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -5942,16 +6104,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -5962,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -5982,16 +6144,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6002,16 +6164,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E59" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F59" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6022,16 +6184,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6042,96 +6204,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F62" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F63" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6142,16 +6304,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6162,16 +6324,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6182,47 +6344,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6230,16 +6392,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6247,16 +6409,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C72" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6264,39 +6426,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C73" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E73" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E74" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F74" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6307,13 +6469,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E75" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6324,64 +6486,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F77" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E78" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6389,16 +6551,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C80" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6406,73 +6568,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E82" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C84" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F84" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6483,16 +6645,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6503,10 +6665,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6514,22 +6676,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6540,16 +6702,16 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E88" t="s">
         <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6560,10 +6722,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
         <v>141</v>
@@ -6574,13 +6736,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6588,19 +6750,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E91" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6611,10 +6773,10 @@
         <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
         <v>121</v>
@@ -6628,16 +6790,16 @@
         <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E93" t="s">
         <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6648,10 +6810,10 @@
         <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E94" t="s">
         <v>131</v>
@@ -6665,10 +6827,10 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E95" t="s">
         <v>154</v>
@@ -6682,10 +6844,10 @@
         <v>105</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E96" t="s">
         <v>154</v>
@@ -6693,16 +6855,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B97" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E97" t="s">
         <v>154</v>
@@ -6716,10 +6878,10 @@
         <v>134</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E98" t="s">
         <v>154</v>
@@ -6730,16 +6892,16 @@
         <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E99" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6750,13 +6912,13 @@
         <v>100</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E100" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6767,10 +6929,10 @@
         <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E101" t="s">
         <v>157</v>
@@ -6784,10 +6946,10 @@
         <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E102" t="s">
         <v>163</v>
@@ -6801,10 +6963,10 @@
         <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E103" t="s">
         <v>167</v>
@@ -6818,10 +6980,10 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E104" t="s">
         <v>167</v>
@@ -6832,13 +6994,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E105" t="s">
         <v>178</v>
@@ -6852,13 +7014,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E106" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -6869,13 +7031,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E107" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -6886,30 +7048,30 @@
         <v>147</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E108" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B109" t="s">
         <v>125</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E109" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -6920,13 +7082,13 @@
         <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E110" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -6937,10 +7099,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E111" t="s">
         <v>218</v>
@@ -6951,13 +7113,13 @@
         <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E112" t="s">
         <v>218</v>
@@ -6971,10 +7133,10 @@
         <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E113" t="s">
         <v>218</v>
@@ -6988,10 +7150,10 @@
         <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E114" t="s">
         <v>218</v>
@@ -7005,10 +7167,10 @@
         <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E115" t="s">
         <v>228</v>
@@ -7022,10 +7184,10 @@
         <v>246</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E116" t="s">
         <v>244</v>
@@ -7036,13 +7198,13 @@
         <v>239</v>
       </c>
       <c r="B117" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C117" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E117" t="s">
         <v>244</v>
@@ -7050,19 +7212,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B118" t="s">
         <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E118" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7073,13 +7235,13 @@
         <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E119" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7090,10 +7252,10 @@
         <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E120" t="s">
         <v>228</v>
@@ -7104,16 +7266,16 @@
         <v>208</v>
       </c>
       <c r="B121" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C121" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E121" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7121,16 +7283,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E122" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7138,16 +7300,16 @@
         <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E123" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7155,16 +7317,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E124" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7175,13 +7337,13 @@
         <v>183</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E125" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7192,13 +7354,13 @@
         <v>249</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E126" t="s">
         <v>499</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E126" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7209,13 +7371,13 @@
         <v>229</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E127" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7223,13 +7385,13 @@
         <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="C128" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E128" t="s">
         <v>253</v>
@@ -7243,10 +7405,10 @@
         <v>229</v>
       </c>
       <c r="C129" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E129" t="s">
         <v>270</v>
@@ -7260,10 +7422,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E130" t="s">
         <v>270</v>
@@ -7277,30 +7439,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E131" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E132" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7311,13 +7473,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E133" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7328,44 +7490,44 @@
         <v>168</v>
       </c>
       <c r="C134" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E134" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B135" t="s">
         <v>254</v>
       </c>
       <c r="C135" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E135" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B136" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C136" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E136" t="s">
         <v>275</v>
@@ -7379,10 +7541,10 @@
         <v>222</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E137" t="s">
         <v>275</v>
@@ -7396,13 +7558,13 @@
         <v>222</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" t="s">
         <v>514</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E138" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7413,13 +7575,13 @@
         <v>229</v>
       </c>
       <c r="C139" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E139" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7430,10 +7592,10 @@
         <v>264</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E140" t="s">
         <v>275</v>
@@ -7447,13 +7609,13 @@
         <v>219</v>
       </c>
       <c r="C141" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E141" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7464,13 +7626,13 @@
         <v>219</v>
       </c>
       <c r="C142" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E142" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7481,13 +7643,13 @@
         <v>219</v>
       </c>
       <c r="C143" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E143" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7498,10 +7660,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E144" t="s">
         <v>275</v>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18090" windowHeight="9480"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="530">
   <si>
     <t>反馈时间</t>
   </si>
@@ -573,7 +573,29 @@
     <t>frank</t>
   </si>
   <si>
-    <t>提供一个菜单配置，是否自动复制那个ThirdParty目录，也提供一个菜单手动复制。</t>
+    <r>
+      <t>提供一个菜单配置，是否自动复制那个ThirdParty目录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也提供一个菜单手动复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>2019.4.20</t>
@@ -643,15 +665,6 @@
   </si>
   <si>
     <t>提供的打印log的dll，实际无法创建控制台窗口</t>
-  </si>
-  <si>
-    <t>2019.6.25</t>
-  </si>
-  <si>
-    <t>3°(37358420)</t>
-  </si>
-  <si>
-    <t>希望3°可以提供cocos编译dll的文档</t>
   </si>
   <si>
     <t>2019.7.2</t>
@@ -829,12 +842,6 @@
     <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
   </si>
   <si>
-    <t>2019.8.14</t>
-  </si>
-  <si>
-    <t>cocos pdb还是无法调试(可参考babelua)</t>
-  </si>
-  <si>
     <t>2019.8.16</t>
   </si>
   <si>
@@ -1503,6 +1510,12 @@
     <t>用hexo来做官网</t>
   </si>
   <si>
+    <t>2019.6.25</t>
+  </si>
+  <si>
+    <t>3°(37358420)</t>
+  </si>
+  <si>
     <t>cocos引擎无法调试，已提供测试包</t>
   </si>
   <si>
@@ -1615,6 +1628,18 @@
   </si>
   <si>
     <t>提供一个菜单打开配置文件夹</t>
+  </si>
+  <si>
+    <t>希望3°可以提供cocos编译dll的文档</t>
+  </si>
+  <si>
+    <t>不再需要</t>
+  </si>
+  <si>
+    <t>2019.8.14</t>
+  </si>
+  <si>
+    <t>cocos pdb还是无法调试(可参考babelua)</t>
   </si>
 </sst>
 </file>
@@ -1622,12 +1647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,6 +1695,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -1685,6 +1717,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,7 +1768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1730,7 +1776,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1753,31 +1815,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1800,21 +1838,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1829,7 +1861,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,31 +1915,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,109 +1957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,19 +1981,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,6 +2081,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2080,6 +2123,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2094,32 +2152,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2128,10 +2160,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2140,19 +2172,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2161,116 +2193,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2301,13 +2333,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2658,17 +2693,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="61.625" customWidth="1"/>
+    <col min="3" max="3" width="79.875" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
@@ -2827,7 +2862,7 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2967,7 +3002,7 @@
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -3135,7 +3170,7 @@
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3233,7 +3268,7 @@
       <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -3247,7 +3282,7 @@
       <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -3373,7 +3408,7 @@
       <c r="B50" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -3701,7 +3736,7 @@
       <c r="B73" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -3715,7 +3750,7 @@
       <c r="B74" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -3729,7 +3764,7 @@
       <c r="B75" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3785,7 +3820,7 @@
       <c r="B79" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -3813,7 +3848,7 @@
       <c r="B81" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -3827,7 +3862,7 @@
       <c r="B82" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -3928,7 +3963,7 @@
       <c r="B89" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -4015,7 +4050,7 @@
       <c r="B95" t="s">
         <v>168</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="10" t="s">
         <v>169</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -4029,7 +4064,7 @@
       <c r="B96" t="s">
         <v>100</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="10" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -4113,7 +4148,7 @@
       <c r="B102" t="s">
         <v>51</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D102" s="7" t="s">
@@ -4169,7 +4204,7 @@
       <c r="B106" t="s">
         <v>183</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D106" s="7" t="s">
@@ -4194,7 +4229,7 @@
       <c r="A108" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C108" t="s">
@@ -4344,7 +4379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" ht="62" customHeight="1" spans="1:6">
       <c r="A119" t="s">
         <v>208</v>
       </c>
@@ -4357,32 +4392,32 @@
       <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" ht="62" customHeight="1" spans="1:6">
+      <c r="F119" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" ht="27" spans="1:4">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
-      </c>
-      <c r="C120" t="s">
         <v>213</v>
       </c>
+      <c r="C120" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="121" ht="27" spans="1:4">
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>215</v>
       </c>
       <c r="B121" t="s">
         <v>216</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" t="s">
         <v>217</v>
       </c>
       <c r="D121" s="7" t="s">
@@ -4417,15 +4452,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
-      </c>
-      <c r="C125" t="s">
         <v>226</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
@@ -4433,13 +4482,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
@@ -4447,13 +4496,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
         <v>229</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
@@ -4461,13 +4510,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4475,13 +4524,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C129" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4489,10 +4538,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -4503,10 +4552,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
         <v>234</v>
@@ -4517,13 +4566,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B132" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" t="s">
         <v>235</v>
-      </c>
-      <c r="C132" t="s">
-        <v>236</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
@@ -4531,10 +4580,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C133" t="s">
         <v>237</v>
@@ -4545,10 +4594,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C134" t="s">
         <v>238</v>
@@ -4559,13 +4608,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" t="s">
+        <v>226</v>
+      </c>
+      <c r="C135" t="s">
         <v>239</v>
-      </c>
-      <c r="B135" t="s">
-        <v>229</v>
-      </c>
-      <c r="C135" t="s">
-        <v>240</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>9</v>
@@ -4573,13 +4622,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>9</v>
@@ -4587,10 +4636,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="C137" t="s">
         <v>242</v>
@@ -4601,13 +4650,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
-      </c>
-      <c r="C138" t="s">
         <v>243</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>9</v>
@@ -4615,13 +4664,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>9</v>
@@ -4629,13 +4678,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>247</v>
+        <v>226</v>
+      </c>
+      <c r="C140" t="s">
+        <v>248</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>9</v>
@@ -4643,13 +4692,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B141" t="s">
+        <v>226</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C141" t="s">
-        <v>250</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
@@ -4657,13 +4706,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
@@ -4671,13 +4720,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>252</v>
+        <v>204</v>
+      </c>
+      <c r="C143" t="s">
+        <v>254</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
@@ -4688,9 +4737,9 @@
         <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>255</v>
       </c>
       <c r="D144" s="7" t="s">
@@ -4699,13 +4748,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
-      </c>
-      <c r="C145" t="s">
-        <v>257</v>
+        <v>209</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>9</v>
@@ -4713,13 +4762,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="C146" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
@@ -4730,7 +4779,7 @@
         <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="C147" t="s">
         <v>258</v>
@@ -4744,10 +4793,10 @@
         <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
-      </c>
-      <c r="C148" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4755,13 +4804,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>9</v>
@@ -4769,12 +4818,12 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
-      </c>
-      <c r="C150" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" t="s">
         <v>263</v>
       </c>
       <c r="D150" s="7" t="s">
@@ -4783,13 +4832,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
+        <v>226</v>
+      </c>
+      <c r="C151" t="s">
         <v>264</v>
-      </c>
-      <c r="C151" t="s">
-        <v>265</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4797,10 +4846,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
         <v>266</v>
@@ -4811,13 +4860,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>229</v>
-      </c>
-      <c r="C153" t="s">
         <v>267</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>9</v>
@@ -4825,12 +4874,12 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
-      </c>
-      <c r="C154" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>269</v>
       </c>
       <c r="D154" s="7" t="s">
@@ -4842,7 +4891,7 @@
         <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="C155" t="s">
         <v>271</v>
@@ -4853,13 +4902,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B156" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" t="s">
         <v>272</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -4867,13 +4916,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>274</v>
+        <v>155</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>9</v>
@@ -4881,13 +4930,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>9</v>
@@ -4895,13 +4944,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B159" t="s">
-        <v>222</v>
-      </c>
-      <c r="C159" t="s">
-        <v>277</v>
+        <v>243</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>9</v>
@@ -4909,13 +4958,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>155</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>278</v>
+        <v>219</v>
+      </c>
+      <c r="C160" t="s">
+        <v>276</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>9</v>
@@ -4923,13 +4972,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="B161" t="s">
         <v>222</v>
       </c>
       <c r="C161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>9</v>
@@ -4937,13 +4986,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="B162" t="s">
-        <v>246</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>9</v>
@@ -4951,13 +5000,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B163" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C163" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>9</v>
@@ -4965,13 +5014,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>282</v>
-      </c>
-      <c r="B164" t="s">
-        <v>225</v>
+        <v>277</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>9</v>
@@ -4979,13 +5028,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B165" t="s">
-        <v>204</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="C165" t="s">
+        <v>281</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>9</v>
@@ -4993,13 +5042,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" t="s">
+        <v>243</v>
+      </c>
+      <c r="C166" t="s">
         <v>282</v>
-      </c>
-      <c r="B166" t="s">
-        <v>246</v>
-      </c>
-      <c r="C166" t="s">
-        <v>284</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>9</v>
@@ -5007,13 +5056,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>282</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>189</v>
+        <v>277</v>
+      </c>
+      <c r="B167" t="s">
+        <v>243</v>
       </c>
       <c r="C167" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>9</v>
@@ -5021,71 +5070,29 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B168" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C168" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" ht="17.25" spans="1:4">
       <c r="A169" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B169" t="s">
-        <v>246</v>
-      </c>
-      <c r="C169" t="s">
-        <v>287</v>
+        <v>243</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>282</v>
-      </c>
-      <c r="B170" t="s">
-        <v>246</v>
-      </c>
-      <c r="C170" t="s">
-        <v>288</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>282</v>
-      </c>
-      <c r="B171" t="s">
-        <v>246</v>
-      </c>
-      <c r="C171" t="s">
-        <v>289</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" ht="17.25" spans="1:4">
-      <c r="A172" t="s">
-        <v>282</v>
-      </c>
-      <c r="B172" t="s">
-        <v>246</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D172" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5098,10 +5105,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5135,84 +5142,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5220,16 +5227,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5237,19 +5244,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5260,10 +5267,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>73</v>
@@ -5277,10 +5284,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>73</v>
@@ -5294,10 +5301,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>141</v>
@@ -5311,10 +5318,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>62</v>
@@ -5328,13 +5335,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5345,10 +5352,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>62</v>
@@ -5362,13 +5369,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5379,84 +5386,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5467,16 +5474,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5487,16 +5494,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5507,161 +5514,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" t="s">
         <v>335</v>
-      </c>
-      <c r="F26" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E27" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E29" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
         <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C31" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E31" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5672,10 +5679,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5689,10 +5696,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5706,10 +5713,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5723,10 +5730,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5734,36 +5741,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E36" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5774,10 +5781,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5785,16 +5792,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -5808,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5825,13 +5832,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E41" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5842,13 +5849,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E42" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5859,13 +5866,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E43" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5876,10 +5883,10 @@
         <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
@@ -5893,13 +5900,13 @@
         <v>97</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5910,16 +5917,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5930,13 +5937,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5947,10 +5954,10 @@
         <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
         <v>128</v>
@@ -5958,142 +5965,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" t="s">
         <v>373</v>
       </c>
-      <c r="B50" t="s">
-        <v>378</v>
-      </c>
       <c r="C50" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s">
         <v>373</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F51" t="s">
         <v>378</v>
-      </c>
-      <c r="C51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F51" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" t="s">
         <v>373</v>
       </c>
-      <c r="B52" t="s">
-        <v>378</v>
-      </c>
       <c r="C52" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F52" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" t="s">
         <v>373</v>
       </c>
-      <c r="B53" t="s">
-        <v>378</v>
-      </c>
       <c r="C53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6104,16 +6111,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6124,16 +6131,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6144,16 +6151,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6164,16 +6171,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E59" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6184,16 +6191,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6204,96 +6211,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F62" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E63" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F63" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F65" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6304,16 +6311,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6324,16 +6331,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6344,47 +6351,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6392,16 +6399,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6409,16 +6416,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B72" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6426,39 +6433,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
+        <v>416</v>
+      </c>
+      <c r="B73" t="s">
+        <v>419</v>
+      </c>
+      <c r="C73" t="s">
         <v>421</v>
       </c>
-      <c r="B73" t="s">
-        <v>424</v>
-      </c>
-      <c r="C73" t="s">
-        <v>426</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E73" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E74" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F74" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6469,13 +6476,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6486,64 +6493,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E76" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F77" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E78" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6551,16 +6558,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
+        <v>428</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="C80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6568,73 +6575,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E81" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B84" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E84" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6645,16 +6652,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E85" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F85" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6665,10 +6672,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6676,22 +6683,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6702,16 +6709,16 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E88" t="s">
         <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6722,10 +6729,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E89" t="s">
         <v>141</v>
@@ -6736,13 +6743,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6750,19 +6757,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E91" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6773,10 +6780,10 @@
         <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E92" t="s">
         <v>121</v>
@@ -6790,16 +6797,16 @@
         <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E93" t="s">
         <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6810,10 +6817,10 @@
         <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E94" t="s">
         <v>131</v>
@@ -6827,10 +6834,10 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E95" t="s">
         <v>154</v>
@@ -6844,10 +6851,10 @@
         <v>105</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E96" t="s">
         <v>154</v>
@@ -6855,16 +6862,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E97" t="s">
         <v>154</v>
@@ -6878,10 +6885,10 @@
         <v>134</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E98" t="s">
         <v>154</v>
@@ -6892,16 +6899,16 @@
         <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E99" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6912,13 +6919,13 @@
         <v>100</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E100" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6929,10 +6936,10 @@
         <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E101" t="s">
         <v>157</v>
@@ -6946,10 +6953,10 @@
         <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E102" t="s">
         <v>163</v>
@@ -6963,10 +6970,10 @@
         <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
         <v>167</v>
@@ -6980,10 +6987,10 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E104" t="s">
         <v>167</v>
@@ -6994,13 +7001,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E105" t="s">
         <v>178</v>
@@ -7014,13 +7021,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E106" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7031,13 +7038,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E107" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7048,30 +7055,30 @@
         <v>147</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E108" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B109" t="s">
         <v>125</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E109" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7082,13 +7089,13 @@
         <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E110" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7099,13 +7106,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -7113,16 +7120,16 @@
         <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -7133,149 +7140,149 @@
         <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>487</v>
       </c>
       <c r="C114" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C117" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E117" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B118" t="s">
         <v>204</v>
       </c>
       <c r="C118" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E118" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E119" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C120" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="B121" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C121" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E121" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7283,16 +7290,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E122" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7300,16 +7307,16 @@
         <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E123" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7317,16 +7324,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E124" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7337,81 +7344,81 @@
         <v>183</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E125" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E127" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C128" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C129" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E129" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7422,13 +7429,13 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E130" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:5">
@@ -7439,30 +7446,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E131" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E132" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7473,13 +7480,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E133" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7490,183 +7497,211 @@
         <v>168</v>
       </c>
       <c r="C134" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E134" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C135" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E135" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B136" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C136" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E136" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E137" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B138" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E138" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C139" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E139" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B140" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E141" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B142" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E142" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B143" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E143" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B144" t="s">
         <v>64</v>
       </c>
       <c r="C144" t="s">
+        <v>525</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E144" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>487</v>
+      </c>
+      <c r="C145" t="s">
+        <v>526</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
         <v>528</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E144" t="s">
-        <v>275</v>
+      <c r="B146" t="s">
+        <v>487</v>
+      </c>
+      <c r="C146" t="s">
+        <v>529</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="541">
   <si>
     <t>反馈时间</t>
   </si>
@@ -266,9 +266,6 @@
     <t>ProjectList界面增加删除某项的功能。</t>
   </si>
   <si>
-    <t>希望可以支持Cocos2d-x 3.6。</t>
-  </si>
-  <si>
     <t>一些智能提示操作有问题。</t>
   </si>
   <si>
@@ -574,6 +571,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>提供一个菜单配置，是否自动复制那个ThirdParty目录，</t>
     </r>
     <r>
@@ -719,9 +723,6 @@
     <t>罗技鼠标慢速滚动时有问题</t>
   </si>
   <si>
-    <t>输入法中文输入窗口的位置有问题</t>
-  </si>
-  <si>
     <t>2019.8.6</t>
   </si>
   <si>
@@ -848,12 +849,6 @@
     <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
   </si>
   <si>
-    <t>ccgo(821869798)</t>
-  </si>
-  <si>
-    <t>中文的输入候选框，不跟光标，LP在一个屏幕，候选框在另一个屏幕上，能解决吗？输入法是win10自带的，其他的编辑器是正常的</t>
-  </si>
-  <si>
     <t>监视窗口对象显示元表</t>
   </si>
   <si>
@@ -872,9 +867,6 @@
     <t>从外部拖动文件到文件夹时复制文件过去</t>
   </si>
   <si>
-    <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
-  </si>
-  <si>
     <t>直接拖文件到Project进行文件复制操作</t>
   </si>
   <si>
@@ -884,9 +876,6 @@
     <t>字体间距有点大，希望可以配置字体</t>
   </si>
   <si>
-    <t>快捷键有一些是两个组合键，如Ctrl+K+C这种的支持</t>
-  </si>
-  <si>
     <t>对于--[[]]这种类型的注释操作的支持</t>
   </si>
   <si>
@@ -902,7 +891,25 @@
     <t>Alt+Up/Down交换行</t>
   </si>
   <si>
-    <t>输入法怎么不跟在旁边</t>
+    <t>2019.8.22</t>
+  </si>
+  <si>
+    <t>Go To File对话框可不可以不是模态对话框</t>
+  </si>
+  <si>
+    <t>InstantWatch窗口无法拉伸</t>
+  </si>
+  <si>
+    <t>文件在Sublime里修改后，在LuaPerfect里还是旧的</t>
+  </si>
+  <si>
+    <t>未测试到</t>
+  </si>
+  <si>
+    <t>不同目录下的同名文件其中一个无法断点</t>
+  </si>
+  <si>
+    <t>Go To Line时输入就应该可以跳转，为什么要按OK/Enter才能跳转</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1636,10 +1643,43 @@
     <t>不再需要</t>
   </si>
   <si>
+    <t>2019.8.21</t>
+  </si>
+  <si>
     <t>2019.8.14</t>
   </si>
   <si>
     <t>cocos pdb还是无法调试(可参考babelua)</t>
+  </si>
+  <si>
+    <t>希望可以支持Cocos2d-x 3.6。</t>
+  </si>
+  <si>
+    <t>2019.8.25</t>
+  </si>
+  <si>
+    <t>没有dll也没有pdb时提示Failed to load lua dll/pdb,有没有更好的提法</t>
+  </si>
+  <si>
+    <t>pdb启动调试很慢</t>
+  </si>
+  <si>
+    <t>输入法中文输入窗口的位置有问题</t>
+  </si>
+  <si>
+    <t>ccgo(821869798)</t>
+  </si>
+  <si>
+    <t>中文的输入候选框，不跟光标，LP在一个屏幕，候选框在另一个屏幕上，能解决吗？输入法是win10自带的，其他的编辑器是正常的</t>
+  </si>
+  <si>
+    <t>输入法怎么不跟在旁边</t>
+  </si>
+  <si>
+    <t>快捷键有一些是两个组合键，如Ctrl+K+C这种的支持</t>
+  </si>
+  <si>
+    <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
   </si>
 </sst>
 </file>
@@ -1648,9 +1688,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1695,17 +1735,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1723,7 +1763,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1731,6 +1832,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,28 +1869,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1799,54 +1886,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1861,7 +1901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,37 +1925,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,7 +1961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,13 +1979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,13 +1997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,19 +2015,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +2057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,43 +2069,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,8 +2098,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,62 +2187,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2160,10 +2200,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2172,112 +2212,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2286,19 +2332,13 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2318,7 +2358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2330,10 +2370,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2341,9 +2384,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2693,10 +2733,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2730,7 +2770,7 @@
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3294,7 +3334,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>82</v>
@@ -3310,7 +3350,7 @@
       <c r="B43" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -3333,13 +3373,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>9</v>
@@ -3347,13 +3387,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="8" t="s">
         <v>87</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>9</v>
@@ -3361,13 +3401,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="7" t="s">
         <v>89</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>9</v>
@@ -3375,58 +3415,58 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>79</v>
+      <c r="C48" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
       <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>9</v>
@@ -3434,13 +3474,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>9</v>
@@ -3448,10 +3488,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
         <v>99</v>
-      </c>
-      <c r="B53" t="s">
-        <v>100</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>101</v>
@@ -3462,12 +3502,12 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
         <v>99</v>
       </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -3476,12 +3516,12 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -3490,24 +3530,24 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
         <v>104</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" t="s">
-        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>106</v>
@@ -3515,33 +3555,33 @@
       <c r="D57" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>9</v>
@@ -3552,10 +3592,10 @@
         <v>44</v>
       </c>
       <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>9</v>
@@ -3563,10 +3603,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>112</v>
@@ -3580,10 +3620,10 @@
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>9</v>
@@ -3594,10 +3634,10 @@
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>9</v>
@@ -3608,10 +3648,10 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>9</v>
@@ -3622,7 +3662,7 @@
         <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>119</v>
@@ -3631,15 +3671,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="27" spans="1:4">
       <c r="A66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
+        <v>120</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>9</v>
@@ -3647,10 +3687,10 @@
     </row>
     <row r="67" ht="27" spans="1:4">
       <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>123</v>
@@ -3659,15 +3699,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" ht="27" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="7" t="s">
         <v>124</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>9</v>
@@ -3675,10 +3715,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>126</v>
@@ -3689,13 +3729,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="8" t="s">
         <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>9</v>
@@ -3703,13 +3743,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>9</v>
@@ -3717,13 +3757,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>9</v>
@@ -3734,7 +3774,7 @@
         <v>54</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>135</v>
@@ -3745,10 +3785,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>136</v>
@@ -3759,12 +3799,12 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -3773,10 +3813,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>138</v>
@@ -3787,10 +3827,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>139</v>
@@ -3801,13 +3841,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>9</v>
@@ -3815,12 +3855,12 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -3829,41 +3869,41 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="C81" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="D81" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="12" t="s">
         <v>146</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>9</v>
@@ -3871,24 +3911,24 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>149</v>
@@ -3896,33 +3936,33 @@
       <c r="D84" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>9</v>
@@ -3930,13 +3970,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" t="s">
         <v>154</v>
       </c>
-      <c r="B87" t="s">
-        <v>155</v>
-      </c>
       <c r="C87" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>9</v>
@@ -3944,13 +3984,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>9</v>
@@ -3958,12 +3998,12 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -3972,12 +4012,12 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -3986,12 +4026,12 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
         <v>160</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -4000,10 +4040,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>161</v>
@@ -4012,45 +4052,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -4059,12 +4099,12 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -4073,13 +4113,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B97" t="s">
-        <v>100</v>
+        <v>171</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>9</v>
@@ -4087,10 +4127,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
         <v>173</v>
@@ -4101,13 +4141,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99" t="s">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>9</v>
@@ -4115,12 +4155,12 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C100" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s">
         <v>176</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -4129,13 +4169,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" t="s">
-        <v>177</v>
+        <v>51</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>9</v>
@@ -4143,13 +4183,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>9</v>
@@ -4157,13 +4197,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>175</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>140</v>
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s">
+        <v>180</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>9</v>
@@ -4171,13 +4211,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>9</v>
@@ -4185,13 +4225,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
         <v>182</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>9</v>
@@ -4199,26 +4239,26 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>182</v>
-      </c>
-      <c r="B106" t="s">
-        <v>183</v>
-      </c>
-      <c r="C106" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="B106" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="D106" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>185</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C107" s="8" t="s">
+      <c r="A107" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" t="s">
         <v>186</v>
       </c>
       <c r="D107" s="7" t="s">
@@ -4227,13 +4267,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" t="s">
         <v>187</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>9</v>
@@ -4241,13 +4281,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>9</v>
@@ -4255,13 +4295,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>9</v>
@@ -4269,7 +4309,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>11</v>
@@ -4282,14 +4322,14 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="8" t="s">
+      <c r="A112" t="s">
         <v>196</v>
+      </c>
+      <c r="B112" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" t="s">
+        <v>198</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>9</v>
@@ -4297,10 +4337,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
         <v>197</v>
-      </c>
-      <c r="B113" t="s">
-        <v>198</v>
       </c>
       <c r="C113" t="s">
         <v>199</v>
@@ -4311,10 +4351,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
         <v>197</v>
-      </c>
-      <c r="B114" t="s">
-        <v>198</v>
       </c>
       <c r="C114" t="s">
         <v>200</v>
@@ -4325,13 +4365,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" t="s">
         <v>201</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>9</v>
@@ -4339,13 +4379,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
-      </c>
-      <c r="C116" s="8" t="s">
         <v>203</v>
+      </c>
+      <c r="C116" t="s">
+        <v>204</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>9</v>
@@ -4353,58 +4393,58 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" ht="62" customHeight="1" spans="1:6">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="C118" t="s">
+        <v>209</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" ht="62" customHeight="1" spans="1:6">
+      <c r="F118" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" ht="27" spans="1:4">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>209</v>
-      </c>
-      <c r="C119" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" ht="27" spans="1:4">
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="C120" t="s">
+        <v>216</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>9</v>
@@ -4412,13 +4452,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>9</v>
@@ -4426,13 +4466,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>9</v>
@@ -4440,13 +4480,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
@@ -4454,13 +4494,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="8" t="s">
         <v>224</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>9</v>
@@ -4468,12 +4508,12 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
-      </c>
-      <c r="C125" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C125" t="s">
         <v>227</v>
       </c>
       <c r="D125" s="7" t="s">
@@ -4482,10 +4522,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
         <v>228</v>
@@ -4496,10 +4536,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127" t="s">
         <v>229</v>
@@ -4510,13 +4550,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
@@ -4524,13 +4564,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
@@ -4538,10 +4578,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
         <v>233</v>
@@ -4552,13 +4592,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
@@ -4566,13 +4606,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
@@ -4580,10 +4620,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
         <v>237</v>
@@ -4594,10 +4634,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
         <v>238</v>
@@ -4608,13 +4648,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>9</v>
@@ -4622,13 +4662,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>226</v>
-      </c>
-      <c r="C136" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>9</v>
@@ -4636,13 +4676,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="C137" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>9</v>
@@ -4650,13 +4690,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>244</v>
+        <v>224</v>
+      </c>
+      <c r="C138" t="s">
+        <v>246</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>9</v>
@@ -4664,12 +4704,12 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
-      </c>
-      <c r="C139" t="s">
+        <v>224</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -4678,13 +4718,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C140" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>9</v>
@@ -4692,13 +4732,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>249</v>
+        <v>203</v>
+      </c>
+      <c r="C141" t="s">
+        <v>252</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
@@ -4706,13 +4746,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
-      </c>
-      <c r="C142" t="s">
-        <v>252</v>
+        <v>51</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
@@ -4720,13 +4760,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
+        <v>251</v>
+      </c>
+      <c r="B143" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="B143" t="s">
-        <v>204</v>
-      </c>
-      <c r="C143" t="s">
-        <v>254</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
@@ -4734,13 +4774,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>255</v>
+        <v>221</v>
+      </c>
+      <c r="C144" t="s">
+        <v>252</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
@@ -4748,13 +4788,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
-        <v>209</v>
-      </c>
-      <c r="C145" s="8" t="s">
         <v>255</v>
+      </c>
+      <c r="C145" t="s">
+        <v>256</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>9</v>
@@ -4762,13 +4802,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
-        <v>222</v>
-      </c>
-      <c r="C146" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
@@ -4776,13 +4816,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C147" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
@@ -4790,13 +4830,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>260</v>
+        <v>224</v>
+      </c>
+      <c r="C148" t="s">
+        <v>261</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4804,10 +4844,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
         <v>262</v>
@@ -4818,13 +4858,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>9</v>
@@ -4832,13 +4872,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
-      </c>
-      <c r="C151" t="s">
-        <v>264</v>
+        <v>203</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4846,13 +4886,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="C152" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>9</v>
@@ -4860,12 +4900,12 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>267</v>
-      </c>
-      <c r="C153" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" t="s">
         <v>268</v>
       </c>
       <c r="D153" s="7" t="s">
@@ -4874,12 +4914,12 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
-      </c>
-      <c r="C154" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>269</v>
       </c>
       <c r="D154" s="7" t="s">
@@ -4888,13 +4928,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" t="s">
         <v>270</v>
-      </c>
-      <c r="B155" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" t="s">
-        <v>271</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>9</v>
@@ -4902,13 +4942,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -4916,12 +4956,12 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
-      </c>
-      <c r="C157" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" t="s">
         <v>273</v>
       </c>
       <c r="D157" s="7" t="s">
@@ -4930,13 +4970,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
-      </c>
-      <c r="C158" t="s">
-        <v>274</v>
+        <v>203</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>9</v>
@@ -4944,13 +4984,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>241</v>
-      </c>
-      <c r="B159" t="s">
-        <v>243</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" t="s">
+        <v>274</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>9</v>
@@ -4958,13 +4998,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>9</v>
@@ -4972,13 +5012,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="C161" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>9</v>
@@ -4986,13 +5026,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" t="s">
+        <v>241</v>
+      </c>
+      <c r="C162" t="s">
         <v>277</v>
-      </c>
-      <c r="B162" t="s">
-        <v>204</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>9</v>
@@ -5000,13 +5040,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>9</v>
@@ -5014,10 +5054,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>277</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>189</v>
+        <v>279</v>
+      </c>
+      <c r="B164" t="s">
+        <v>80</v>
       </c>
       <c r="C164" t="s">
         <v>280</v>
@@ -5028,10 +5068,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="C165" t="s">
         <v>281</v>
@@ -5040,29 +5080,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
-      </c>
-      <c r="C166" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>282</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>9</v>
@@ -5070,29 +5113,15 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B168" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="C168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" ht="17.25" spans="1:4">
-      <c r="A169" t="s">
-        <v>277</v>
-      </c>
-      <c r="B169" t="s">
-        <v>243</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D169" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5105,10 +5134,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:D146"/>
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5272,7 +5301,7 @@
       <c r="D9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5289,7 +5318,7 @@
       <c r="D10" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5306,8 +5335,8 @@
       <c r="D11" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>141</v>
+      <c r="E11" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
@@ -5323,7 +5352,7 @@
       <c r="D12" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5357,7 +5386,7 @@
       <c r="D14" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5374,7 +5403,7 @@
       <c r="D15" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5391,7 +5420,7 @@
       <c r="D16" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5642,7 +5671,7 @@
         <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
         <v>343</v>
@@ -5829,7 +5858,7 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
         <v>357</v>
@@ -5877,10 +5906,10 @@
     </row>
     <row r="44" ht="14.25" spans="1:5">
       <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>361</v>
@@ -5889,15 +5918,15 @@
         <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:5">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>362</v>
@@ -5948,10 +5977,10 @@
     </row>
     <row r="48" ht="14.25" spans="1:5">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
         <v>367</v>
@@ -5960,7 +5989,7 @@
         <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:6">
@@ -6703,10 +6732,10 @@
     </row>
     <row r="88" ht="14.25" spans="1:6">
       <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
         <v>93</v>
-      </c>
-      <c r="B88" t="s">
-        <v>94</v>
       </c>
       <c r="C88" t="s">
         <v>448</v>
@@ -6715,7 +6744,7 @@
         <v>288</v>
       </c>
       <c r="E88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F88" t="s">
         <v>449</v>
@@ -6723,7 +6752,7 @@
     </row>
     <row r="89" ht="14.25" spans="1:5">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
@@ -6735,7 +6764,7 @@
         <v>288</v>
       </c>
       <c r="E89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:5">
@@ -6760,7 +6789,7 @@
         <v>453</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>454</v>
@@ -6774,10 +6803,10 @@
     </row>
     <row r="92" ht="14.25" spans="1:5">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
         <v>455</v>
@@ -6786,15 +6815,15 @@
         <v>288</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:6">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
         <v>456</v>
@@ -6803,7 +6832,7 @@
         <v>288</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F93" t="s">
         <v>457</v>
@@ -6811,10 +6840,10 @@
     </row>
     <row r="94" ht="14.25" spans="1:5">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
         <v>458</v>
@@ -6823,15 +6852,15 @@
         <v>288</v>
       </c>
       <c r="E94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:5">
       <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
         <v>99</v>
-      </c>
-      <c r="B95" t="s">
-        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>459</v>
@@ -6840,15 +6869,15 @@
         <v>288</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:5">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>460</v>
@@ -6857,7 +6886,7 @@
         <v>288</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:5">
@@ -6874,7 +6903,7 @@
         <v>288</v>
       </c>
       <c r="E97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:5">
@@ -6882,7 +6911,7 @@
         <v>54</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>463</v>
@@ -6891,12 +6920,12 @@
         <v>288</v>
       </c>
       <c r="E98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:5">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
         <v>464</v>
@@ -6913,10 +6942,10 @@
     </row>
     <row r="100" ht="14.25" spans="1:5">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>467</v>
@@ -6930,10 +6959,10 @@
     </row>
     <row r="101" ht="14.25" spans="1:5">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
         <v>468</v>
@@ -6942,15 +6971,15 @@
         <v>288</v>
       </c>
       <c r="E101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:5">
       <c r="A102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" t="s">
         <v>163</v>
-      </c>
-      <c r="B102" t="s">
-        <v>164</v>
       </c>
       <c r="C102" t="s">
         <v>469</v>
@@ -6959,15 +6988,15 @@
         <v>288</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:5">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
         <v>470</v>
@@ -6976,15 +7005,15 @@
         <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:5">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
         <v>471</v>
@@ -6993,7 +7022,7 @@
         <v>288</v>
       </c>
       <c r="E104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:5">
@@ -7010,7 +7039,7 @@
         <v>288</v>
       </c>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:5">
@@ -7032,7 +7061,7 @@
     </row>
     <row r="107" ht="14.25" spans="1:5">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -7049,10 +7078,10 @@
     </row>
     <row r="108" ht="14.25" spans="1:5">
       <c r="A108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>477</v>
@@ -7069,7 +7098,7 @@
         <v>479</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>480</v>
@@ -7083,10 +7112,10 @@
     </row>
     <row r="110" ht="14.25" spans="1:5">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
         <v>481</v>
@@ -7112,12 +7141,12 @@
         <v>288</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" t="s">
         <v>483</v>
@@ -7129,15 +7158,15 @@
         <v>288</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
       <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
         <v>197</v>
-      </c>
-      <c r="B113" t="s">
-        <v>198</v>
       </c>
       <c r="C113" t="s">
         <v>485</v>
@@ -7146,7 +7175,7 @@
         <v>288</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
@@ -7163,15 +7192,15 @@
         <v>288</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C115" t="s">
         <v>489</v>
@@ -7180,15 +7209,15 @@
         <v>288</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116" t="s">
         <v>241</v>
-      </c>
-      <c r="B116" t="s">
-        <v>243</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>490</v>
@@ -7197,12 +7226,12 @@
         <v>288</v>
       </c>
       <c r="E116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
         <v>491</v>
@@ -7214,7 +7243,7 @@
         <v>288</v>
       </c>
       <c r="E117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -7222,7 +7251,7 @@
         <v>493</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
         <v>494</v>
@@ -7236,10 +7265,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C119" t="s">
         <v>495</v>
@@ -7253,10 +7282,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C120" t="s">
         <v>497</v>
@@ -7265,7 +7294,7 @@
         <v>288</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -7304,7 +7333,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
         <v>501</v>
@@ -7338,10 +7367,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>181</v>
+      </c>
+      <c r="B125" t="s">
         <v>182</v>
-      </c>
-      <c r="B125" t="s">
-        <v>183</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>504</v>
@@ -7355,10 +7384,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>505</v>
@@ -7372,10 +7401,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>504</v>
@@ -7389,7 +7418,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B128" t="s">
         <v>506</v>
@@ -7401,15 +7430,15 @@
         <v>288</v>
       </c>
       <c r="E128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B129" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C129" t="s">
         <v>508</v>
@@ -7418,7 +7447,7 @@
         <v>288</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7435,7 +7464,7 @@
         <v>288</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:5">
@@ -7491,10 +7520,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
         <v>514</v>
@@ -7511,7 +7540,7 @@
         <v>515</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C135" t="s">
         <v>516</v>
@@ -7537,15 +7566,15 @@
         <v>288</v>
       </c>
       <c r="E136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" t="s">
         <v>218</v>
-      </c>
-      <c r="B137" t="s">
-        <v>219</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>519</v>
@@ -7554,15 +7583,15 @@
         <v>288</v>
       </c>
       <c r="E137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>520</v>
@@ -7576,10 +7605,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
         <v>521</v>
@@ -7593,10 +7622,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>518</v>
@@ -7605,15 +7634,15 @@
         <v>288</v>
       </c>
       <c r="E140" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C141" t="s">
         <v>522</v>
@@ -7627,10 +7656,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
         <v>523</v>
@@ -7644,10 +7673,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C143" t="s">
         <v>524</v>
@@ -7661,7 +7690,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B144" t="s">
         <v>64</v>
@@ -7673,10 +7702,10 @@
         <v>288</v>
       </c>
       <c r="E144" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>486</v>
       </c>
@@ -7689,19 +7718,161 @@
       <c r="D145" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B146" t="s">
         <v>487</v>
       </c>
       <c r="C146" t="s">
-        <v>529</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>9</v>
+        <v>530</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E146" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>41</v>
+      </c>
+      <c r="B147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E147" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" t="s">
+        <v>533</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E148" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>279</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" t="s">
+        <v>534</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>220</v>
+      </c>
+      <c r="B150" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E150" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>263</v>
+      </c>
+      <c r="B151" t="s">
+        <v>536</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E151" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="152" ht="17.25" spans="1:5">
+      <c r="A152" t="s">
+        <v>272</v>
+      </c>
+      <c r="B152" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E152" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>272</v>
+      </c>
+      <c r="B153" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" t="s">
+        <v>539</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E153" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E154" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="551">
   <si>
     <t>反馈时间</t>
   </si>
@@ -912,6 +912,33 @@
     <t>Go To Line时输入就应该可以跳转，为什么要按OK/Enter才能跳转</t>
   </si>
   <si>
+    <t>2019.8.26</t>
+  </si>
+  <si>
+    <t>云碧月(576312419)</t>
+  </si>
+  <si>
+    <t>希望有界面汉化选项</t>
+  </si>
+  <si>
+    <t>ccgo(821869798)</t>
+  </si>
+  <si>
+    <t>输入法还是不跟光标，同事用搜狗可以跟光标</t>
+  </si>
+  <si>
+    <t>可以加一下vs里面的对齐虚线吗？这样看起来可读性更好</t>
+  </si>
+  <si>
+    <t>Out of control(1072739809)</t>
+  </si>
+  <si>
+    <t>修改代码后再撤回仍旧显示脚本为修改状态？</t>
+  </si>
+  <si>
+    <t>查找结果界面能弄个折叠功能吗?</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1667,9 +1694,6 @@
     <t>输入法中文输入窗口的位置有问题</t>
   </si>
   <si>
-    <t>ccgo(821869798)</t>
-  </si>
-  <si>
     <t>中文的输入候选框，不跟光标，LP在一个屏幕，候选框在另一个屏幕上，能解决吗？输入法是win10自带的，其他的编辑器是正常的</t>
   </si>
   <si>
@@ -1680,6 +1704,12 @@
   </si>
   <si>
     <t>缩进都是用的\t，能不能搞个配置用4个空格代替</t>
+  </si>
+  <si>
+    <t>如果同时选择了多行，按tab，就不会变成四个空格</t>
+  </si>
+  <si>
+    <t>格式化代码后。。\t又回来了</t>
   </si>
 </sst>
 </file>
@@ -1687,9 +1717,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1748,8 +1778,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,9 +1814,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1779,14 +1830,62 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1817,75 +1916,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1898,42 +1928,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1955,13 +1949,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,19 +2057,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,91 +2105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,30 +2122,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2137,23 +2143,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2175,6 +2166,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2184,11 +2199,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2200,10 +2230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2212,137 +2242,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2384,6 +2414,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2733,10 +2766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5087,7 +5120,7 @@
       <c r="B166" t="s">
         <v>80</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D166" s="7" t="s">
@@ -5104,7 +5137,7 @@
       <c r="B167" t="s">
         <v>80</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="8" t="s">
         <v>284</v>
       </c>
       <c r="D167" s="7" t="s">
@@ -5122,6 +5155,76 @@
         <v>285</v>
       </c>
       <c r="D168" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>286</v>
+      </c>
+      <c r="B169" t="s">
+        <v>287</v>
+      </c>
+      <c r="C169" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>286</v>
+      </c>
+      <c r="B170" t="s">
+        <v>289</v>
+      </c>
+      <c r="C170" t="s">
+        <v>290</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>286</v>
+      </c>
+      <c r="B171" s="14">
+        <v>843157705</v>
+      </c>
+      <c r="C171" t="s">
+        <v>291</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>286</v>
+      </c>
+      <c r="B172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" t="s">
+        <v>293</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>286</v>
+      </c>
+      <c r="B173" t="s">
+        <v>215</v>
+      </c>
+      <c r="C173" t="s">
+        <v>294</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5134,10 +5237,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5171,84 +5274,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5256,16 +5359,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5273,19 +5376,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5296,10 +5399,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5313,10 +5416,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5330,10 +5433,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5347,10 +5450,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5364,13 +5467,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5381,10 +5484,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5398,13 +5501,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5415,84 +5518,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5503,16 +5606,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5523,16 +5626,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5543,161 +5646,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E28" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5708,10 +5811,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5725,10 +5828,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5742,10 +5845,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5759,10 +5862,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5770,36 +5873,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E36" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E37" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5810,10 +5913,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5821,16 +5924,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -5844,13 +5947,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E40" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5861,13 +5964,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E41" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5878,13 +5981,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E42" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5895,13 +5998,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -5912,10 +6015,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -5929,13 +6032,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -5946,16 +6049,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -5966,13 +6069,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -5983,10 +6086,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -5994,142 +6097,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="F52" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F55" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6140,16 +6243,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6160,16 +6263,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6180,16 +6283,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6200,16 +6303,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6220,16 +6323,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6240,96 +6343,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F62" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E63" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F63" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6340,16 +6443,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6360,16 +6463,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6380,47 +6483,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6428,16 +6531,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6445,16 +6548,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6462,39 +6565,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C73" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E73" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E74" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F74" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6505,13 +6608,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6522,64 +6625,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E77" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F77" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6587,16 +6690,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6604,73 +6707,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E81" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E83" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B84" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C84" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6681,16 +6784,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E85" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F85" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6701,10 +6804,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6712,22 +6815,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6738,16 +6841,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6758,10 +6861,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -6772,13 +6875,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6786,19 +6889,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6809,10 +6912,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -6826,16 +6929,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6846,10 +6949,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -6863,10 +6966,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -6880,10 +6983,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -6891,16 +6994,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B97" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -6914,10 +7017,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -6928,16 +7031,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E99" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -6948,13 +7051,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -6965,10 +7068,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -6982,10 +7085,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -6999,10 +7102,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7016,10 +7119,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7030,13 +7133,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7050,13 +7153,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E106" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7067,13 +7170,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E107" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7084,30 +7187,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E108" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E109" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7118,13 +7221,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E110" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7135,10 +7238,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7149,13 +7252,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7169,10 +7272,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7180,16 +7283,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B114" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C114" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7203,10 +7306,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7220,10 +7323,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7234,13 +7337,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C117" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7248,19 +7351,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E118" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7271,13 +7374,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E119" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7288,10 +7391,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7299,19 +7402,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B121" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C121" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E121" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7319,16 +7422,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E122" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7336,16 +7439,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E123" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7353,16 +7456,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E124" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7373,13 +7476,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E125" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7390,13 +7493,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E126" t="s">
         <v>505</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E126" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7407,13 +7510,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E127" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7421,13 +7524,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7441,10 +7544,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7458,10 +7561,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7475,30 +7578,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E131" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E132" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7509,13 +7612,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E133" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7526,44 +7629,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E134" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E135" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B136" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C136" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7577,10 +7680,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7594,13 +7697,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E138" t="s">
         <v>520</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E138" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7611,13 +7714,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E139" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7628,10 +7731,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7645,13 +7748,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E141" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7662,13 +7765,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E142" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7679,13 +7782,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E143" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7696,10 +7799,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7707,36 +7810,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B145" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C145" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E145" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B146" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C146" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E146" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7747,13 +7850,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E147" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7764,13 +7867,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E148" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7781,13 +7884,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E149" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7798,13 +7901,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E150" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7812,16 +7915,16 @@
         <v>263</v>
       </c>
       <c r="B151" t="s">
-        <v>536</v>
+        <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E151" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -7832,13 +7935,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E152" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7849,13 +7952,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E153" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7866,13 +7969,47 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E154" t="s">
-        <v>532</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E155" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>286</v>
+      </c>
+      <c r="B156" t="s">
+        <v>241</v>
+      </c>
+      <c r="C156" t="s">
+        <v>550</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E156" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="554">
   <si>
     <t>反馈时间</t>
   </si>
@@ -939,6 +939,15 @@
     <t>查找结果界面能弄个折叠功能吗?</t>
   </si>
   <si>
+    <t>2019.8.27</t>
+  </si>
+  <si>
+    <t>上边的tab栏能否像vscode和sublime那样有个滑动功能呢</t>
+  </si>
+  <si>
+    <t>Ctrl + Backspace是一个词一个词往前删，Ctrl + Delete是一个词一个词往后删</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1717,10 +1726,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1778,28 +1787,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1815,7 +1802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1823,6 +1810,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1838,22 +1848,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,41 +1878,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1916,9 +1902,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1928,6 +1937,72 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1943,7 +2018,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,19 +2054,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,79 +2084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2069,49 +2114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,21 +2131,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2166,6 +2160,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2173,27 +2193,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2214,11 +2217,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2230,10 +2239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2242,133 +2251,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2766,10 +2775,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5050,7 +5059,7 @@
       <c r="B161" t="s">
         <v>241</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D161" s="7" t="s">
@@ -5225,6 +5234,34 @@
         <v>294</v>
       </c>
       <c r="D173" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>295</v>
+      </c>
+      <c r="B174" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" t="s">
+        <v>296</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>286</v>
+      </c>
+      <c r="B175" t="s">
+        <v>241</v>
+      </c>
+      <c r="C175" t="s">
+        <v>297</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5274,84 +5311,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5359,16 +5396,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5376,19 +5413,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5399,10 +5436,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5416,10 +5453,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5433,10 +5470,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5450,10 +5487,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5467,13 +5504,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5484,10 +5521,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5501,13 +5538,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5518,84 +5555,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5606,16 +5643,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5626,16 +5663,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5646,161 +5683,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F26" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E31" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5811,10 +5848,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5828,10 +5865,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5845,10 +5882,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5862,10 +5899,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5873,36 +5910,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5913,10 +5950,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5924,16 +5961,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -5947,13 +5984,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -5964,13 +6001,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -5981,13 +6018,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -5998,13 +6035,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6015,10 +6052,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6032,13 +6069,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6049,16 +6086,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6069,13 +6106,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" t="s">
         <v>375</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E47" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6086,10 +6123,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6097,142 +6134,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F53" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6243,16 +6280,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6263,16 +6300,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6283,16 +6320,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6303,16 +6340,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E59" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F59" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6323,16 +6360,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6343,96 +6380,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E62" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E63" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F63" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F65" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6443,16 +6480,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6463,16 +6500,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6483,47 +6520,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6531,16 +6568,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6548,16 +6585,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C72" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6565,39 +6602,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F74" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6608,13 +6645,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E75" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6625,64 +6662,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E76" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F77" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78" t="s">
         <v>440</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E78" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6690,16 +6727,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C80" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6707,73 +6744,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C84" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F84" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6784,16 +6821,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6804,10 +6841,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6815,22 +6852,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6841,16 +6878,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6861,10 +6898,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -6875,13 +6912,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6889,19 +6926,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E91" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6912,10 +6949,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -6929,16 +6966,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6949,10 +6986,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -6966,10 +7003,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -6983,10 +7020,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -6994,16 +7031,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7017,10 +7054,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7031,16 +7068,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E99" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7051,13 +7088,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7068,10 +7105,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7085,10 +7122,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7102,10 +7139,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7119,10 +7156,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7133,13 +7170,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7153,13 +7190,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E106" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7170,13 +7207,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7187,30 +7224,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E108" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7221,13 +7258,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7238,10 +7275,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7252,13 +7289,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7272,10 +7309,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7283,16 +7320,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B114" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C114" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7306,10 +7343,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7323,10 +7360,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7337,13 +7374,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C117" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7351,19 +7388,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E118" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7374,13 +7411,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E119" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7391,10 +7428,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7402,19 +7439,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B121" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C121" t="s">
+        <v>511</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" t="s">
         <v>508</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E121" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7422,16 +7459,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7439,16 +7476,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E123" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7456,16 +7493,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E124" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7476,13 +7513,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E125" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7493,13 +7530,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E126" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7510,13 +7547,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E127" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7524,13 +7561,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C128" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7544,10 +7581,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7561,10 +7598,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7578,30 +7615,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E131" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E132" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7612,13 +7649,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E133" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7629,44 +7666,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" t="s">
         <v>523</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E134" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E135" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B136" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C136" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7680,10 +7717,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7697,13 +7734,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E138" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7714,13 +7751,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E139" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7731,10 +7768,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7748,13 +7785,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E141" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7765,13 +7802,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E142" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7782,13 +7819,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E143" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7799,10 +7836,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7810,36 +7847,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B145" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C145" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E145" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B146" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C146" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E146" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7850,13 +7887,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E147" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7867,13 +7904,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E148" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7884,13 +7921,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E149" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7901,13 +7938,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E150" t="s">
         <v>544</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E150" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7918,13 +7955,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E151" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -7935,13 +7972,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E152" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7952,13 +7989,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E153" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7969,13 +8006,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E154" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -7986,10 +8023,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8003,10 +8040,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>

--- a/LuaPerfect用户反馈.xlsx
+++ b/LuaPerfect用户反馈.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="555">
   <si>
     <t>反馈时间</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>Ctrl + Backspace是一个词一个词往前删，Ctrl + Delete是一个词一个词往后删</t>
+  </si>
+  <si>
+    <t>VS里在{和}旁边按下Ctrl+}会触发作用域跳变</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1788,45 +1791,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1854,9 +1829,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,6 +1846,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,7 +1891,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1908,26 +1920,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1940,7 +1943,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,7 +2027,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,13 +2075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,67 +2099,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,73 +2123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,8 +2140,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2158,6 +2176,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2165,6 +2198,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2187,47 +2229,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2239,10 +2242,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2251,16 +2254,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2269,115 +2272,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2775,10 +2778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5262,6 +5265,20 @@
         <v>297</v>
       </c>
       <c r="D175" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>295</v>
+      </c>
+      <c r="B176" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176" t="s">
+        <v>298</v>
+      </c>
+      <c r="D176" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5311,84 +5328,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5396,16 +5413,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5413,19 +5430,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5436,10 +5453,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5453,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5470,10 +5487,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5487,10 +5504,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5504,13 +5521,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5521,10 +5538,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5538,13 +5555,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5555,84 +5572,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" t="s">
         <v>327</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5643,16 +5660,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5663,16 +5680,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5683,161 +5700,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" t="s">
         <v>352</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5848,10 +5865,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5865,10 +5882,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5882,10 +5899,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5899,10 +5916,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5910,36 +5927,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
+        <v>364</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E36" t="s">
         <v>363</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E36" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5950,10 +5967,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5961,16 +5978,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -5984,13 +6001,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6001,13 +6018,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6018,13 +6035,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" t="s">
         <v>371</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6035,13 +6052,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6052,10 +6069,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6069,13 +6086,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6086,16 +6103,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6106,13 +6123,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E47" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6123,10 +6140,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6134,142 +6151,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C49" t="s">
-        <v>382</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="F49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6280,16 +6297,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6300,16 +6317,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6320,16 +6337,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6340,16 +6357,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F59" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6360,16 +6377,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6380,96 +6397,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6480,16 +6497,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6500,16 +6517,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6520,47 +6537,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6568,16 +6585,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6585,16 +6602,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6602,39 +6619,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B73" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E74" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F74" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6645,13 +6662,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6662,64 +6679,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E76" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
+        <v>442</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" t="s">
         <v>441</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E77" t="s">
-        <v>440</v>
-      </c>
       <c r="F77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E78" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6727,16 +6744,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6744,73 +6761,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E82" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6821,16 +6838,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F85" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6841,10 +6858,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6852,22 +6869,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6878,16 +6895,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6898,10 +6915,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -6912,13 +6929,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6926,19 +6943,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6949,10 +6966,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -6966,16 +6983,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -6986,10 +7003,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7003,10 +7020,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7020,10 +7037,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7031,16 +7048,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7054,10 +7071,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7068,16 +7085,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7088,13 +7105,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" t="s">
         <v>479</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E100" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7105,10 +7122,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7122,10 +7139,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7139,10 +7156,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7156,10 +7173,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7170,13 +7187,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7190,13 +7207,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E106" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7207,13 +7224,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107" t="s">
         <v>488</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7224,30 +7241,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E108" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E109" t="s">
         <v>492</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E109" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7258,13 +7275,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E110" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7275,10 +7292,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7289,13 +7306,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7309,10 +7326,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7320,16 +7337,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B114" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C114" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7343,10 +7360,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7360,10 +7377,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7374,13 +7391,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C117" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7388,19 +7405,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
+        <v>507</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E118" t="s">
         <v>506</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E118" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7411,13 +7428,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E119" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7428,10 +7445,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7439,19 +7456,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B121" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C121" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E121" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7459,16 +7476,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E122" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7476,16 +7493,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7493,16 +7510,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7513,13 +7530,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E125" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7530,13 +7547,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7547,13 +7564,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E127" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7561,13 +7578,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C128" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7581,10 +7598,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7598,10 +7615,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7615,30 +7632,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E131" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E132" t="s">
         <v>524</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E132" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7649,13 +7666,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E133" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7666,44 +7683,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E134" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B136" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C136" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7717,10 +7734,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7734,13 +7751,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7751,13 +7768,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E139" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7768,10 +7785,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7785,13 +7802,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E141" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7802,13 +7819,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E142" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7819,13 +7836,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E143" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7836,10 +7853,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7847,36 +7864,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B145" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C145" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E145" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
+        <v>542</v>
+      </c>
+      <c r="B146" t="s">
+        <v>500</v>
+      </c>
+      <c r="C146" t="s">
+        <v>543</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E146" t="s">
         <v>541</v>
-      </c>
-      <c r="B146" t="s">
-        <v>499</v>
-      </c>
-      <c r="C146" t="s">
-        <v>542</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E146" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7887,13 +7904,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E147" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7904,13 +7921,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
+        <v>546</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E148" t="s">
         <v>545</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E148" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7921,13 +7938,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E149" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7938,13 +7955,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E150" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7955,13 +7972,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E151" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -7972,13 +7989,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E152" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7989,13 +8006,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E153" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8006,13 +8023,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E154" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8023,10 +8040,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8040,10 +8057,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>
